--- a/Verification_MULT_v1.xlsx
+++ b/Verification_MULT_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="14310" tabRatio="812" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="14250" tabRatio="812" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="POWER A" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="358">
   <si>
     <t>PULSE</t>
   </si>
@@ -1077,19 +1077,37 @@
     <t>Actual (Hex)</t>
   </si>
   <si>
-    <t>Averages (ns)</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
     <t>HSPICE ERROR</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Avg Ev Delay (ns)</t>
+  </si>
+  <si>
+    <t>Max Ev Delay (ns)</t>
+  </si>
+  <si>
+    <t>Avg PC Delay (ns)</t>
+  </si>
+  <si>
+    <t>Max PC Delay (ns)</t>
+  </si>
+  <si>
+    <t>Averages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1339,7 +1357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1366,8 +1384,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3408,19 +3431,19 @@
       </c>
       <c r="B2">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:S17" ca="1" si="0">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -3428,7 +3451,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -3436,7 +3459,7 @@
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
@@ -3444,7 +3467,7 @@
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
@@ -3452,11 +3475,11 @@
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -3472,7 +3495,7 @@
       </c>
       <c r="R2">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
@@ -3496,7 +3519,7 @@
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
@@ -3508,7 +3531,7 @@
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
@@ -3528,27 +3551,27 @@
       </c>
       <c r="AF2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2" ca="1" si="2">IF(B2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI2">
         <f t="shared" ref="AI2" ca="1" si="3">IF(C2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ2">
         <f t="shared" ref="AJ2" ca="1" si="4">IF(D2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2" ca="1" si="5">IF(E2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2" ca="1" si="6">IF(F2=0,1.1,0)</f>
@@ -3556,7 +3579,7 @@
       </c>
       <c r="AM2">
         <f t="shared" ref="AM2" ca="1" si="7">IF(G2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2" ca="1" si="8">IF(H2=0,1.1,0)</f>
@@ -3564,7 +3587,7 @@
       </c>
       <c r="AO2">
         <f t="shared" ref="AO2" ca="1" si="9">IF(I2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2" ca="1" si="10">IF(J2=0,1.1,0)</f>
@@ -3572,7 +3595,7 @@
       </c>
       <c r="AQ2">
         <f t="shared" ref="AQ2" ca="1" si="11">IF(K2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <f t="shared" ref="AR2" ca="1" si="12">IF(L2=0,1.1,0)</f>
@@ -3580,11 +3603,11 @@
       </c>
       <c r="AS2">
         <f t="shared" ref="AS2" ca="1" si="13">IF(M2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT2">
         <f t="shared" ref="AT2" ca="1" si="14">IF(N2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <f t="shared" ref="AU2" ca="1" si="15">IF(O2=0,1.1,0)</f>
@@ -3600,7 +3623,7 @@
       </c>
       <c r="AX2">
         <f t="shared" ref="AX2" ca="1" si="18">IF(R2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY2">
         <f t="shared" ref="AY2" ca="1" si="19">IF(S2=0,1.1,0)</f>
@@ -3624,7 +3647,7 @@
       </c>
       <c r="BD2">
         <f t="shared" ref="BD2" ca="1" si="24">IF(X2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE2">
         <f t="shared" ref="BE2" ca="1" si="25">IF(Y2=0,1.1,0)</f>
@@ -3636,7 +3659,7 @@
       </c>
       <c r="BG2">
         <f t="shared" ref="BG2" ca="1" si="27">IF(AA2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH2">
         <f t="shared" ref="BH2" ca="1" si="28">IF(AB2=0,1.1,0)</f>
@@ -3656,11 +3679,11 @@
       </c>
       <c r="BL2">
         <f t="shared" ref="BL2" ca="1" si="32">IF(AF2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM2">
         <f t="shared" ref="BM2" ca="1" si="33">IF(AG2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -3669,19 +3692,19 @@
       </c>
       <c r="B3">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
@@ -3689,7 +3712,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
@@ -3709,11 +3732,11 @@
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -3725,11 +3748,11 @@
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R3">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -3737,19 +3760,19 @@
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
@@ -3757,7 +3780,7 @@
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
@@ -3769,15 +3792,15 @@
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
@@ -3789,27 +3812,27 @@
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH10" ca="1" si="34">IF(B3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI10" ca="1" si="35">IF(C3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ10" ca="1" si="36">IF(D3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK3">
         <f t="shared" ref="AK3:AK10" ca="1" si="37">IF(E3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AL10" ca="1" si="38">IF(F3=0,1.1,0)</f>
@@ -3817,7 +3840,7 @@
       </c>
       <c r="AM3">
         <f t="shared" ref="AM3:AM10" ca="1" si="39">IF(G3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN10" ca="1" si="40">IF(H3=0,1.1,0)</f>
@@ -3837,11 +3860,11 @@
       </c>
       <c r="AR3">
         <f t="shared" ref="AR3:AR10" ca="1" si="44">IF(L3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS3">
         <f t="shared" ref="AS3:AS10" ca="1" si="45">IF(M3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <f t="shared" ref="AT3:AT10" ca="1" si="46">IF(N3=0,1.1,0)</f>
@@ -3853,11 +3876,11 @@
       </c>
       <c r="AV3">
         <f t="shared" ref="AV3:AV10" ca="1" si="48">IF(P3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW3">
         <f t="shared" ref="AW3:AW10" ca="1" si="49">IF(Q3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <f t="shared" ref="AX3:AX10" ca="1" si="50">IF(R3=0,1.1,0)</f>
@@ -3865,19 +3888,19 @@
       </c>
       <c r="AY3">
         <f t="shared" ref="AY3:AY10" ca="1" si="51">IF(S3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ10" ca="1" si="52">IF(T3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA10" ca="1" si="53">IF(U3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB10" ca="1" si="54">IF(V3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC3">
         <f t="shared" ref="BC3:BC10" ca="1" si="55">IF(W3=0,1.1,0)</f>
@@ -3885,7 +3908,7 @@
       </c>
       <c r="BD3">
         <f t="shared" ref="BD3:BD10" ca="1" si="56">IF(X3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE10" ca="1" si="57">IF(Y3=0,1.1,0)</f>
@@ -3897,15 +3920,15 @@
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG10" ca="1" si="59">IF(AA3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH3">
         <f t="shared" ref="BH3:BH10" ca="1" si="60">IF(AB3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <f t="shared" ref="BI3:BI10" ca="1" si="61">IF(AC3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <f t="shared" ref="BJ3:BJ10" ca="1" si="62">IF(AD3=0,1.1,0)</f>
@@ -3917,11 +3940,11 @@
       </c>
       <c r="BL3">
         <f t="shared" ref="BL3:BL10" ca="1" si="64">IF(AF3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM3">
         <f t="shared" ref="BM3:BM10" ca="1" si="65">IF(AG3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
@@ -3930,7 +3953,7 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:Q19" ca="1" si="66">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
@@ -3938,11 +3961,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
@@ -3954,7 +3977,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
@@ -3962,7 +3985,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
@@ -3974,7 +3997,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -3982,7 +4005,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
@@ -3998,11 +4021,11 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4:AG19" ca="1" si="67">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="67"/>
@@ -4018,7 +4041,7 @@
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="67"/>
@@ -4038,7 +4061,7 @@
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="67"/>
@@ -4046,11 +4069,11 @@
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" ca="1" si="67"/>
@@ -4058,7 +4081,7 @@
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI4">
         <f t="shared" ca="1" si="35"/>
@@ -4066,11 +4089,11 @@
       </c>
       <c r="AJ4">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <f t="shared" ca="1" si="38"/>
@@ -4082,7 +4105,7 @@
       </c>
       <c r="AN4">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="41"/>
@@ -4090,7 +4113,7 @@
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="42"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="43"/>
@@ -4102,7 +4125,7 @@
       </c>
       <c r="AS4">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="46"/>
@@ -4110,7 +4133,7 @@
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="48"/>
@@ -4126,11 +4149,11 @@
       </c>
       <c r="AY4">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ4">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA4">
         <f t="shared" ca="1" si="53"/>
@@ -4146,7 +4169,7 @@
       </c>
       <c r="BD4">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <f t="shared" ca="1" si="57"/>
@@ -4166,7 +4189,7 @@
       </c>
       <c r="BI4">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <f t="shared" ca="1" si="62"/>
@@ -4174,11 +4197,11 @@
       </c>
       <c r="BK4">
         <f t="shared" ca="1" si="63"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM4">
         <f t="shared" ca="1" si="65"/>
@@ -4191,11 +4214,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
@@ -4215,7 +4238,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
@@ -4223,31 +4246,31 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
@@ -4259,7 +4282,7 @@
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="67"/>
@@ -4267,7 +4290,7 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="67"/>
@@ -4275,7 +4298,7 @@
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="67"/>
@@ -4287,11 +4310,11 @@
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="67"/>
@@ -4303,7 +4326,7 @@
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="67"/>
@@ -4311,19 +4334,19 @@
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI5">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ5">
         <f t="shared" ca="1" si="36"/>
@@ -4343,7 +4366,7 @@
       </c>
       <c r="AN5">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <f t="shared" ca="1" si="41"/>
@@ -4351,31 +4374,31 @@
       </c>
       <c r="AP5">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR5">
         <f t="shared" ca="1" si="44"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <f t="shared" ca="1" si="45"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="46"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV5">
         <f t="shared" ca="1" si="48"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW5">
         <f t="shared" ca="1" si="49"/>
@@ -4387,7 +4410,7 @@
       </c>
       <c r="AY5">
         <f t="shared" ca="1" si="51"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <f t="shared" ca="1" si="52"/>
@@ -4395,7 +4418,7 @@
       </c>
       <c r="BA5">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB5">
         <f t="shared" ca="1" si="54"/>
@@ -4403,7 +4426,7 @@
       </c>
       <c r="BC5">
         <f t="shared" ca="1" si="55"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <f t="shared" ca="1" si="56"/>
@@ -4415,11 +4438,11 @@
       </c>
       <c r="BF5">
         <f t="shared" ca="1" si="58"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH5">
         <f t="shared" ca="1" si="60"/>
@@ -4431,7 +4454,7 @@
       </c>
       <c r="BJ5">
         <f t="shared" ca="1" si="62"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK5">
         <f t="shared" ca="1" si="63"/>
@@ -4439,11 +4462,11 @@
       </c>
       <c r="BL5">
         <f t="shared" ca="1" si="64"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM5">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -4456,7 +4479,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -4464,7 +4487,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
@@ -4472,15 +4495,15 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -4488,15 +4511,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -4504,7 +4527,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
@@ -4516,23 +4539,23 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="67"/>
@@ -4548,11 +4571,11 @@
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="67"/>
@@ -4560,11 +4583,11 @@
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="67"/>
@@ -4572,11 +4595,11 @@
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="34"/>
@@ -4584,7 +4607,7 @@
       </c>
       <c r="AI6">
         <f t="shared" ca="1" si="35"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <f t="shared" ca="1" si="36"/>
@@ -4592,7 +4615,7 @@
       </c>
       <c r="AK6">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <f t="shared" ca="1" si="38"/>
@@ -4600,15 +4623,15 @@
       </c>
       <c r="AM6">
         <f t="shared" ca="1" si="39"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP6">
         <f t="shared" ca="1" si="42"/>
@@ -4616,15 +4639,15 @@
       </c>
       <c r="AQ6">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR6">
         <f t="shared" ca="1" si="44"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <f t="shared" ca="1" si="45"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <f t="shared" ca="1" si="46"/>
@@ -4632,7 +4655,7 @@
       </c>
       <c r="AU6">
         <f t="shared" ca="1" si="47"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <f t="shared" ca="1" si="48"/>
@@ -4644,23 +4667,23 @@
       </c>
       <c r="AX6">
         <f t="shared" ca="1" si="50"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY6">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ6">
         <f t="shared" ca="1" si="52"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA6">
         <f t="shared" ca="1" si="53"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <f t="shared" ca="1" si="54"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC6">
         <f t="shared" ca="1" si="55"/>
@@ -4676,11 +4699,11 @@
       </c>
       <c r="BF6">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG6">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH6">
         <f t="shared" ca="1" si="60"/>
@@ -4688,11 +4711,11 @@
       </c>
       <c r="BI6">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK6">
         <f t="shared" ca="1" si="63"/>
@@ -4700,11 +4723,11 @@
       </c>
       <c r="BL6">
         <f t="shared" ca="1" si="64"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
@@ -4725,11 +4748,11 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
@@ -4737,7 +4760,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
@@ -4749,7 +4772,7 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
@@ -4757,19 +4780,19 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
@@ -4777,15 +4800,15 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="67"/>
@@ -4797,11 +4820,11 @@
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="67"/>
@@ -4829,7 +4852,7 @@
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="67"/>
@@ -4837,7 +4860,7 @@
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="34"/>
@@ -4853,11 +4876,11 @@
       </c>
       <c r="AK7">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="38"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="39"/>
@@ -4865,7 +4888,7 @@
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="41"/>
@@ -4877,7 +4900,7 @@
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="44"/>
@@ -4885,19 +4908,19 @@
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="47"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="48"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <f t="shared" ca="1" si="49"/>
@@ -4905,15 +4928,15 @@
       </c>
       <c r="AX7">
         <f t="shared" ca="1" si="50"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY7">
         <f t="shared" ca="1" si="51"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA7">
         <f t="shared" ca="1" si="53"/>
@@ -4925,11 +4948,11 @@
       </c>
       <c r="BC7">
         <f t="shared" ca="1" si="55"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD7">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE7">
         <f t="shared" ca="1" si="57"/>
@@ -4957,7 +4980,7 @@
       </c>
       <c r="BK7">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL7">
         <f t="shared" ca="1" si="64"/>
@@ -4965,7 +4988,7 @@
       </c>
       <c r="BM7">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
@@ -4974,11 +4997,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
@@ -4986,7 +5009,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
@@ -4994,7 +5017,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
@@ -5002,7 +5025,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -5010,7 +5033,7 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
@@ -5018,19 +5041,19 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
@@ -5042,15 +5065,15 @@
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="67"/>
@@ -5070,7 +5093,7 @@
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="67"/>
@@ -5098,15 +5121,15 @@
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI8">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ8">
         <f t="shared" ca="1" si="36"/>
@@ -5114,7 +5137,7 @@
       </c>
       <c r="AK8">
         <f t="shared" ca="1" si="37"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="38"/>
@@ -5122,7 +5145,7 @@
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="39"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="40"/>
@@ -5130,7 +5153,7 @@
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="42"/>
@@ -5138,7 +5161,7 @@
       </c>
       <c r="AQ8">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="44"/>
@@ -5146,19 +5169,19 @@
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="46"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="48"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW8">
         <f t="shared" ca="1" si="49"/>
@@ -5170,15 +5193,15 @@
       </c>
       <c r="AY8">
         <f t="shared" ca="1" si="51"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA8">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB8">
         <f t="shared" ca="1" si="54"/>
@@ -5198,7 +5221,7 @@
       </c>
       <c r="BF8">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG8">
         <f t="shared" ca="1" si="59"/>
@@ -5226,7 +5249,7 @@
       </c>
       <c r="BM8">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
@@ -5235,15 +5258,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
@@ -5251,7 +5274,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
@@ -5267,7 +5290,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
@@ -5279,15 +5302,15 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
@@ -5295,15 +5318,15 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="67"/>
@@ -5311,35 +5334,35 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="67"/>
@@ -5347,7 +5370,7 @@
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="67"/>
@@ -5355,7 +5378,7 @@
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="67"/>
@@ -5363,15 +5386,15 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="34"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <f t="shared" ca="1" si="35"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK9">
         <f t="shared" ca="1" si="37"/>
@@ -5379,7 +5402,7 @@
       </c>
       <c r="AL9">
         <f t="shared" ca="1" si="38"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM9">
         <f t="shared" ca="1" si="39"/>
@@ -5395,7 +5418,7 @@
       </c>
       <c r="AP9">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ9">
         <f t="shared" ca="1" si="43"/>
@@ -5407,15 +5430,15 @@
       </c>
       <c r="AS9">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT9">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU9">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV9">
         <f t="shared" ca="1" si="48"/>
@@ -5423,15 +5446,15 @@
       </c>
       <c r="AW9">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX9">
         <f t="shared" ca="1" si="50"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY9">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ9">
         <f t="shared" ca="1" si="52"/>
@@ -5439,35 +5462,35 @@
       </c>
       <c r="BA9">
         <f t="shared" ca="1" si="53"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <f t="shared" ca="1" si="54"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC9">
         <f t="shared" ca="1" si="55"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD9">
         <f t="shared" ca="1" si="56"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE9">
         <f t="shared" ca="1" si="57"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF9">
         <f t="shared" ca="1" si="58"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG9">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH9">
         <f t="shared" ca="1" si="60"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI9">
         <f t="shared" ca="1" si="61"/>
@@ -5475,7 +5498,7 @@
       </c>
       <c r="BJ9">
         <f t="shared" ca="1" si="62"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK9">
         <f t="shared" ca="1" si="63"/>
@@ -5483,7 +5506,7 @@
       </c>
       <c r="BL9">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM9">
         <f t="shared" ca="1" si="65"/>
@@ -5496,11 +5519,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
@@ -5508,7 +5531,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -5516,7 +5539,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
@@ -5524,15 +5547,15 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
@@ -5544,11 +5567,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
@@ -5556,7 +5579,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R10">
         <f t="shared" ref="R10:R13" ca="1" si="68">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -5564,15 +5587,15 @@
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="67"/>
@@ -5584,7 +5607,7 @@
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="67"/>
@@ -5600,7 +5623,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="67"/>
@@ -5608,7 +5631,7 @@
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="67"/>
@@ -5624,11 +5647,11 @@
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI10">
         <f t="shared" ca="1" si="35"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <f t="shared" ca="1" si="36"/>
@@ -5636,7 +5659,7 @@
       </c>
       <c r="AK10">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <f t="shared" ca="1" si="38"/>
@@ -5644,7 +5667,7 @@
       </c>
       <c r="AM10">
         <f t="shared" ca="1" si="39"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="40"/>
@@ -5652,15 +5675,15 @@
       </c>
       <c r="AO10">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP10">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ10">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR10">
         <f t="shared" ca="1" si="44"/>
@@ -5672,11 +5695,11 @@
       </c>
       <c r="AT10">
         <f t="shared" ca="1" si="46"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV10">
         <f t="shared" ca="1" si="48"/>
@@ -5684,7 +5707,7 @@
       </c>
       <c r="AW10">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <f t="shared" ca="1" si="50"/>
@@ -5692,15 +5715,15 @@
       </c>
       <c r="AY10">
         <f t="shared" ca="1" si="51"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA10">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB10">
         <f t="shared" ca="1" si="54"/>
@@ -5712,7 +5735,7 @@
       </c>
       <c r="BD10">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE10">
         <f t="shared" ca="1" si="57"/>
@@ -5728,7 +5751,7 @@
       </c>
       <c r="BH10">
         <f t="shared" ca="1" si="60"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI10">
         <f t="shared" ca="1" si="61"/>
@@ -5736,7 +5759,7 @@
       </c>
       <c r="BJ10">
         <f t="shared" ca="1" si="62"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK10">
         <f t="shared" ca="1" si="63"/>
@@ -5757,7 +5780,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
@@ -5769,7 +5792,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -5781,15 +5804,15 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
@@ -5797,7 +5820,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
@@ -5809,15 +5832,15 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="68"/>
@@ -5841,7 +5864,7 @@
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="67"/>
@@ -5853,27 +5876,27 @@
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="67"/>
@@ -5881,11 +5904,11 @@
       </c>
       <c r="AG11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH11">
         <f t="shared" ref="AH11:AH20" ca="1" si="69">IF(B11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI11">
         <f t="shared" ref="AI11:AI20" ca="1" si="70">IF(C11=0,1.1,0)</f>
@@ -5897,7 +5920,7 @@
       </c>
       <c r="AK11">
         <f t="shared" ref="AK11:AK20" ca="1" si="72">IF(E11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <f t="shared" ref="AL11:AL20" ca="1" si="73">IF(F11=0,1.1,0)</f>
@@ -5909,15 +5932,15 @@
       </c>
       <c r="AN11">
         <f t="shared" ref="AN11:AN20" ca="1" si="75">IF(H11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <f t="shared" ref="AO11:AO20" ca="1" si="76">IF(I11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP11">
         <f t="shared" ref="AP11:AP20" ca="1" si="77">IF(J11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
         <f t="shared" ref="AQ11:AQ20" ca="1" si="78">IF(K11=0,1.1,0)</f>
@@ -5925,7 +5948,7 @@
       </c>
       <c r="AR11">
         <f t="shared" ref="AR11:AR20" ca="1" si="79">IF(L11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS11">
         <f t="shared" ref="AS11:AS20" ca="1" si="80">IF(M11=0,1.1,0)</f>
@@ -5937,15 +5960,15 @@
       </c>
       <c r="AU11">
         <f t="shared" ref="AU11:AU20" ca="1" si="82">IF(O11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV11">
         <f t="shared" ref="AV11:AV20" ca="1" si="83">IF(P11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW11">
         <f t="shared" ref="AW11:AW20" ca="1" si="84">IF(Q11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <f t="shared" ref="AX11:AX20" ca="1" si="85">IF(R11=0,1.1,0)</f>
@@ -5969,7 +5992,7 @@
       </c>
       <c r="BC11">
         <f t="shared" ref="BC11:BC20" ca="1" si="90">IF(W11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD11">
         <f t="shared" ref="BD11:BD20" ca="1" si="91">IF(X11=0,1.1,0)</f>
@@ -5981,27 +6004,27 @@
       </c>
       <c r="BF11">
         <f t="shared" ref="BF11:BF20" ca="1" si="93">IF(Z11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG11">
         <f t="shared" ref="BG11:BG20" ca="1" si="94">IF(AA11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH11">
         <f t="shared" ref="BH11:BH20" ca="1" si="95">IF(AB11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI11">
         <f t="shared" ref="BI11:BI20" ca="1" si="96">IF(AC11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ11">
         <f t="shared" ref="BJ11:BJ20" ca="1" si="97">IF(AD11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK11">
         <f t="shared" ref="BK11:BK20" ca="1" si="98">IF(AE11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL11">
         <f t="shared" ref="BL11:BL20" ca="1" si="99">IF(AF11=0,1.1,0)</f>
@@ -6009,7 +6032,7 @@
       </c>
       <c r="BM11">
         <f t="shared" ref="BM11:BM20" ca="1" si="100">IF(AG11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
@@ -6022,7 +6045,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -6030,11 +6053,11 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
@@ -6042,11 +6065,11 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -6054,7 +6077,7 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
@@ -6062,7 +6085,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
@@ -6070,11 +6093,11 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
@@ -6082,7 +6105,7 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="68"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
@@ -6090,11 +6113,11 @@
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="67"/>
@@ -6114,7 +6137,7 @@
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="67"/>
@@ -6134,15 +6157,15 @@
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="69"/>
@@ -6150,7 +6173,7 @@
       </c>
       <c r="AI12">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ12">
         <f t="shared" ca="1" si="71"/>
@@ -6158,11 +6181,11 @@
       </c>
       <c r="AK12">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL12">
         <f t="shared" ca="1" si="73"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM12">
         <f t="shared" ca="1" si="74"/>
@@ -6170,11 +6193,11 @@
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="75"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO12">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP12">
         <f t="shared" ca="1" si="77"/>
@@ -6182,7 +6205,7 @@
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="78"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="79"/>
@@ -6190,7 +6213,7 @@
       </c>
       <c r="AS12">
         <f t="shared" ca="1" si="80"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT12">
         <f t="shared" ca="1" si="81"/>
@@ -6198,11 +6221,11 @@
       </c>
       <c r="AU12">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV12">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW12">
         <f t="shared" ca="1" si="84"/>
@@ -6210,7 +6233,7 @@
       </c>
       <c r="AX12">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY12">
         <f t="shared" ca="1" si="86"/>
@@ -6218,11 +6241,11 @@
       </c>
       <c r="AZ12">
         <f t="shared" ca="1" si="87"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA12">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB12">
         <f t="shared" ca="1" si="89"/>
@@ -6242,7 +6265,7 @@
       </c>
       <c r="BF12">
         <f t="shared" ca="1" si="93"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG12">
         <f t="shared" ca="1" si="94"/>
@@ -6262,15 +6285,15 @@
       </c>
       <c r="BK12">
         <f t="shared" ca="1" si="98"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL12">
         <f t="shared" ca="1" si="99"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM12">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
@@ -6279,7 +6302,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
@@ -6287,7 +6310,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -6299,7 +6322,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
@@ -6307,15 +6330,15 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
@@ -6323,27 +6346,27 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="0"/>
@@ -6359,15 +6382,15 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="67"/>
@@ -6395,19 +6418,19 @@
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="70"/>
@@ -6415,7 +6438,7 @@
       </c>
       <c r="AJ13">
         <f t="shared" ca="1" si="71"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <f t="shared" ca="1" si="72"/>
@@ -6427,7 +6450,7 @@
       </c>
       <c r="AM13">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="75"/>
@@ -6435,15 +6458,15 @@
       </c>
       <c r="AO13">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <f t="shared" ca="1" si="77"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="78"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="79"/>
@@ -6451,27 +6474,27 @@
       </c>
       <c r="AS13">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT13">
         <f t="shared" ca="1" si="81"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV13">
         <f t="shared" ca="1" si="83"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW13">
         <f t="shared" ca="1" si="84"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX13">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY13">
         <f t="shared" ca="1" si="86"/>
@@ -6487,15 +6510,15 @@
       </c>
       <c r="BB13">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC13">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD13">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE13">
         <f t="shared" ca="1" si="92"/>
@@ -6523,15 +6546,15 @@
       </c>
       <c r="BK13">
         <f t="shared" ca="1" si="98"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL13">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM13">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6540,11 +6563,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
@@ -6560,7 +6583,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
@@ -6568,7 +6591,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
@@ -6588,19 +6611,19 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="0"/>
@@ -6612,7 +6635,7 @@
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="67"/>
@@ -6620,7 +6643,7 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="67"/>
@@ -6628,7 +6651,7 @@
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="67"/>
@@ -6636,11 +6659,11 @@
       </c>
       <c r="Z14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="67"/>
@@ -6648,31 +6671,31 @@
       </c>
       <c r="AC14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI14">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
         <f t="shared" ca="1" si="71"/>
@@ -6688,7 +6711,7 @@
       </c>
       <c r="AM14">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="75"/>
@@ -6696,7 +6719,7 @@
       </c>
       <c r="AO14">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <f t="shared" ca="1" si="77"/>
@@ -6716,19 +6739,19 @@
       </c>
       <c r="AT14">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU14">
         <f t="shared" ca="1" si="82"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV14">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW14">
         <f t="shared" ca="1" si="84"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <f t="shared" ca="1" si="85"/>
@@ -6740,7 +6763,7 @@
       </c>
       <c r="AZ14">
         <f t="shared" ca="1" si="87"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA14">
         <f t="shared" ca="1" si="88"/>
@@ -6748,7 +6771,7 @@
       </c>
       <c r="BB14">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC14">
         <f t="shared" ca="1" si="90"/>
@@ -6756,7 +6779,7 @@
       </c>
       <c r="BD14">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE14">
         <f t="shared" ca="1" si="92"/>
@@ -6764,11 +6787,11 @@
       </c>
       <c r="BF14">
         <f t="shared" ca="1" si="93"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG14">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH14">
         <f t="shared" ca="1" si="95"/>
@@ -6776,23 +6799,23 @@
       </c>
       <c r="BI14">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ14">
         <f t="shared" ca="1" si="97"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK14">
         <f t="shared" ca="1" si="98"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL14">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM14">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
@@ -6813,15 +6836,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
@@ -6833,7 +6856,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
@@ -6841,7 +6864,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
@@ -6849,7 +6872,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
@@ -6861,11 +6884,11 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="67"/>
@@ -6877,15 +6900,15 @@
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="67"/>
@@ -6905,7 +6928,7 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC15">
         <f t="shared" ca="1" si="67"/>
@@ -6913,7 +6936,7 @@
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <f t="shared" ca="1" si="67"/>
@@ -6925,7 +6948,7 @@
       </c>
       <c r="AG15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="69"/>
@@ -6941,15 +6964,15 @@
       </c>
       <c r="AK15">
         <f t="shared" ca="1" si="72"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="75"/>
@@ -6961,7 +6984,7 @@
       </c>
       <c r="AP15">
         <f t="shared" ca="1" si="77"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <f t="shared" ca="1" si="78"/>
@@ -6969,7 +6992,7 @@
       </c>
       <c r="AR15">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS15">
         <f t="shared" ca="1" si="80"/>
@@ -6977,7 +7000,7 @@
       </c>
       <c r="AT15">
         <f t="shared" ca="1" si="81"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <f t="shared" ca="1" si="82"/>
@@ -6989,11 +7012,11 @@
       </c>
       <c r="AW15">
         <f t="shared" ca="1" si="84"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX15">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY15">
         <f t="shared" ca="1" si="86"/>
@@ -7005,15 +7028,15 @@
       </c>
       <c r="BA15">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB15">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC15">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD15">
         <f t="shared" ca="1" si="91"/>
@@ -7033,7 +7056,7 @@
       </c>
       <c r="BH15">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI15">
         <f t="shared" ca="1" si="96"/>
@@ -7041,7 +7064,7 @@
       </c>
       <c r="BJ15">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK15">
         <f t="shared" ca="1" si="98"/>
@@ -7053,7 +7076,7 @@
       </c>
       <c r="BM15">
         <f t="shared" ca="1" si="100"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
@@ -7062,7 +7085,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
@@ -7070,31 +7093,31 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
@@ -7106,15 +7129,15 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
@@ -7126,11 +7149,11 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="67"/>
@@ -7138,7 +7161,7 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="67"/>
@@ -7146,19 +7169,19 @@
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA16">
         <f t="shared" ca="1" si="67"/>
@@ -7166,11 +7189,11 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="67"/>
@@ -7182,7 +7205,7 @@
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <f t="shared" ca="1" si="67"/>
@@ -7190,7 +7213,7 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <f t="shared" ca="1" si="70"/>
@@ -7198,31 +7221,31 @@
       </c>
       <c r="AJ16">
         <f t="shared" ca="1" si="71"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <f t="shared" ca="1" si="72"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="75"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO16">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP16">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ16">
         <f t="shared" ca="1" si="78"/>
@@ -7234,15 +7257,15 @@
       </c>
       <c r="AS16">
         <f t="shared" ca="1" si="80"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT16">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU16">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV16">
         <f t="shared" ca="1" si="83"/>
@@ -7254,11 +7277,11 @@
       </c>
       <c r="AX16">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY16">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ16">
         <f t="shared" ca="1" si="87"/>
@@ -7266,7 +7289,7 @@
       </c>
       <c r="BA16">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB16">
         <f t="shared" ca="1" si="89"/>
@@ -7274,19 +7297,19 @@
       </c>
       <c r="BC16">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD16">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE16">
         <f t="shared" ca="1" si="92"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF16">
         <f t="shared" ca="1" si="93"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG16">
         <f t="shared" ca="1" si="94"/>
@@ -7294,11 +7317,11 @@
       </c>
       <c r="BH16">
         <f t="shared" ca="1" si="95"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI16">
         <f t="shared" ca="1" si="96"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ16">
         <f t="shared" ca="1" si="97"/>
@@ -7310,7 +7333,7 @@
       </c>
       <c r="BL16">
         <f t="shared" ca="1" si="99"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM16">
         <f t="shared" ca="1" si="100"/>
@@ -7323,11 +7346,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
@@ -7339,7 +7362,7 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
@@ -7351,7 +7374,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
@@ -7359,23 +7382,23 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="0"/>
@@ -7387,35 +7410,35 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="67"/>
@@ -7423,15 +7446,15 @@
       </c>
       <c r="AA17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="67"/>
@@ -7443,19 +7466,19 @@
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI17">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ17">
         <f t="shared" ca="1" si="71"/>
@@ -7467,7 +7490,7 @@
       </c>
       <c r="AL17">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <f t="shared" ca="1" si="74"/>
@@ -7479,7 +7502,7 @@
       </c>
       <c r="AO17">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <f t="shared" ca="1" si="77"/>
@@ -7487,23 +7510,23 @@
       </c>
       <c r="AQ17">
         <f t="shared" ca="1" si="78"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR17">
         <f t="shared" ca="1" si="79"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS17">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT17">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU17">
         <f t="shared" ca="1" si="82"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV17">
         <f t="shared" ca="1" si="83"/>
@@ -7515,35 +7538,35 @@
       </c>
       <c r="AX17">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY17">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ17">
         <f t="shared" ca="1" si="87"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA17">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB17">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC17">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD17">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE17">
         <f t="shared" ca="1" si="92"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF17">
         <f t="shared" ca="1" si="93"/>
@@ -7551,15 +7574,15 @@
       </c>
       <c r="BG17">
         <f t="shared" ca="1" si="94"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH17">
         <f t="shared" ca="1" si="95"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI17">
         <f t="shared" ca="1" si="96"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ17">
         <f t="shared" ca="1" si="97"/>
@@ -7571,11 +7594,11 @@
       </c>
       <c r="BL17">
         <f t="shared" ca="1" si="99"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM17">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
@@ -7588,11 +7611,11 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="66"/>
@@ -7600,15 +7623,15 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="66"/>
@@ -7624,11 +7647,11 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="66"/>
@@ -7636,7 +7659,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="66"/>
@@ -7648,27 +7671,27 @@
       </c>
       <c r="R18">
         <f t="shared" ref="C18:R26" ca="1" si="101">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="67"/>
@@ -7684,11 +7707,11 @@
       </c>
       <c r="AA18">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <f t="shared" ca="1" si="67"/>
@@ -7708,7 +7731,7 @@
       </c>
       <c r="AG18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <f t="shared" ca="1" si="69"/>
@@ -7716,11 +7739,11 @@
       </c>
       <c r="AI18">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
         <f t="shared" ca="1" si="71"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <f t="shared" ca="1" si="72"/>
@@ -7728,15 +7751,15 @@
       </c>
       <c r="AL18">
         <f t="shared" ca="1" si="73"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="75"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <f t="shared" ca="1" si="76"/>
@@ -7752,11 +7775,11 @@
       </c>
       <c r="AR18">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS18">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT18">
         <f t="shared" ca="1" si="81"/>
@@ -7764,7 +7787,7 @@
       </c>
       <c r="AU18">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV18">
         <f t="shared" ca="1" si="83"/>
@@ -7776,27 +7799,27 @@
       </c>
       <c r="AX18">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY18">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ18">
         <f t="shared" ca="1" si="87"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA18">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB18">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC18">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD18">
         <f t="shared" ca="1" si="91"/>
@@ -7812,11 +7835,11 @@
       </c>
       <c r="BG18">
         <f t="shared" ca="1" si="94"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH18">
         <f t="shared" ca="1" si="95"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI18">
         <f t="shared" ca="1" si="96"/>
@@ -7836,7 +7859,7 @@
       </c>
       <c r="BM18">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
@@ -7861,7 +7884,7 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="101"/>
@@ -7877,23 +7900,23 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="101"/>
@@ -7905,15 +7928,15 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="67"/>
@@ -7925,19 +7948,19 @@
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W19">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z19">
         <f t="shared" ca="1" si="67"/>
@@ -7965,7 +7988,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG19">
         <f t="shared" ca="1" si="67"/>
@@ -7989,7 +8012,7 @@
       </c>
       <c r="AL19">
         <f t="shared" ca="1" si="73"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM19">
         <f t="shared" ca="1" si="74"/>
@@ -8005,23 +8028,23 @@
       </c>
       <c r="AP19">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ19">
         <f t="shared" ca="1" si="78"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR19">
         <f t="shared" ca="1" si="79"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <f t="shared" ca="1" si="80"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT19">
         <f t="shared" ca="1" si="81"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <f t="shared" ca="1" si="82"/>
@@ -8033,15 +8056,15 @@
       </c>
       <c r="AW19">
         <f t="shared" ca="1" si="84"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX19">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY19">
         <f t="shared" ca="1" si="86"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <f t="shared" ca="1" si="87"/>
@@ -8053,19 +8076,19 @@
       </c>
       <c r="BB19">
         <f t="shared" ca="1" si="89"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC19">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD19">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE19">
         <f t="shared" ca="1" si="92"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF19">
         <f t="shared" ca="1" si="93"/>
@@ -8093,7 +8116,7 @@
       </c>
       <c r="BL19">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM19">
         <f t="shared" ca="1" si="100"/>
@@ -8110,7 +8133,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="101"/>
@@ -8122,11 +8145,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="101"/>
@@ -8134,11 +8157,11 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="101"/>
@@ -8146,7 +8169,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="101"/>
@@ -8162,15 +8185,15 @@
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <f t="shared" ref="S20:AG26" ca="1" si="103">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -8178,11 +8201,11 @@
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="103"/>
@@ -8194,7 +8217,7 @@
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="103"/>
@@ -8214,7 +8237,7 @@
       </c>
       <c r="AC20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <f t="shared" ca="1" si="103"/>
@@ -8222,7 +8245,7 @@
       </c>
       <c r="AE20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <f t="shared" ca="1" si="103"/>
@@ -8230,7 +8253,7 @@
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="69"/>
@@ -8238,7 +8261,7 @@
       </c>
       <c r="AI20">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
         <f t="shared" ca="1" si="71"/>
@@ -8250,11 +8273,11 @@
       </c>
       <c r="AL20">
         <f t="shared" ca="1" si="73"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM20">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="75"/>
@@ -8262,11 +8285,11 @@
       </c>
       <c r="AO20">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP20">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ20">
         <f t="shared" ca="1" si="78"/>
@@ -8274,7 +8297,7 @@
       </c>
       <c r="AR20">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS20">
         <f t="shared" ca="1" si="80"/>
@@ -8290,15 +8313,15 @@
       </c>
       <c r="AV20">
         <f t="shared" ca="1" si="83"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <f t="shared" ca="1" si="84"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX20">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY20">
         <f t="shared" ca="1" si="86"/>
@@ -8306,11 +8329,11 @@
       </c>
       <c r="AZ20">
         <f t="shared" ca="1" si="87"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA20">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB20">
         <f t="shared" ca="1" si="89"/>
@@ -8322,7 +8345,7 @@
       </c>
       <c r="BD20">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE20">
         <f t="shared" ca="1" si="92"/>
@@ -8342,7 +8365,7 @@
       </c>
       <c r="BI20">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ20">
         <f t="shared" ca="1" si="97"/>
@@ -8350,7 +8373,7 @@
       </c>
       <c r="BK20">
         <f t="shared" ca="1" si="98"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL20">
         <f t="shared" ca="1" si="99"/>
@@ -8358,7 +8381,7 @@
       </c>
       <c r="BM20">
         <f t="shared" ca="1" si="100"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
@@ -8367,11 +8390,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="101"/>
@@ -8383,7 +8406,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="101"/>
@@ -8395,15 +8418,15 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="101"/>
@@ -8415,7 +8438,7 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="101"/>
@@ -8423,7 +8446,7 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="101"/>
@@ -8431,15 +8454,15 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="103"/>
@@ -8451,7 +8474,7 @@
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="103"/>
@@ -8459,7 +8482,7 @@
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="103"/>
@@ -8467,7 +8490,7 @@
       </c>
       <c r="AA21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <f t="shared" ca="1" si="103"/>
@@ -8483,7 +8506,7 @@
       </c>
       <c r="AE21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="103"/>
@@ -8491,15 +8514,15 @@
       </c>
       <c r="AG21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH21">
         <f t="shared" ref="AH21:AH26" ca="1" si="104">IF(B21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI21">
         <f t="shared" ref="AI21:AI26" ca="1" si="105">IF(C21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <f t="shared" ref="AJ21:AJ26" ca="1" si="106">IF(D21=0,1.1,0)</f>
@@ -8511,7 +8534,7 @@
       </c>
       <c r="AL21">
         <f t="shared" ref="AL21:AL26" ca="1" si="108">IF(F21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM21">
         <f t="shared" ref="AM21:AM26" ca="1" si="109">IF(G21=0,1.1,0)</f>
@@ -8523,15 +8546,15 @@
       </c>
       <c r="AO21">
         <f t="shared" ref="AO21:AO26" ca="1" si="111">IF(I21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP21">
         <f t="shared" ref="AP21:AP26" ca="1" si="112">IF(J21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ21">
         <f t="shared" ref="AQ21:AQ26" ca="1" si="113">IF(K21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR21">
         <f t="shared" ref="AR21:AR26" ca="1" si="114">IF(L21=0,1.1,0)</f>
@@ -8543,7 +8566,7 @@
       </c>
       <c r="AT21">
         <f t="shared" ref="AT21:AT26" ca="1" si="116">IF(N21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU21">
         <f t="shared" ref="AU21:AU26" ca="1" si="117">IF(O21=0,1.1,0)</f>
@@ -8551,7 +8574,7 @@
       </c>
       <c r="AV21">
         <f t="shared" ref="AV21:AV26" ca="1" si="118">IF(P21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW21">
         <f t="shared" ref="AW21:AW26" ca="1" si="119">IF(Q21=0,1.1,0)</f>
@@ -8559,15 +8582,15 @@
       </c>
       <c r="AX21">
         <f t="shared" ref="AX21:AX26" ca="1" si="120">IF(R21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY21">
         <f t="shared" ref="AY21:AY26" ca="1" si="121">IF(S21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ21">
         <f t="shared" ref="AZ21:AZ26" ca="1" si="122">IF(T21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA21">
         <f t="shared" ref="BA21:BA26" ca="1" si="123">IF(U21=0,1.1,0)</f>
@@ -8579,7 +8602,7 @@
       </c>
       <c r="BC21">
         <f t="shared" ref="BC21:BC26" ca="1" si="125">IF(W21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD21">
         <f t="shared" ref="BD21:BD26" ca="1" si="126">IF(X21=0,1.1,0)</f>
@@ -8587,7 +8610,7 @@
       </c>
       <c r="BE21">
         <f t="shared" ref="BE21:BE26" ca="1" si="127">IF(Y21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF21">
         <f t="shared" ref="BF21:BF26" ca="1" si="128">IF(Z21=0,1.1,0)</f>
@@ -8595,7 +8618,7 @@
       </c>
       <c r="BG21">
         <f t="shared" ref="BG21:BG26" ca="1" si="129">IF(AA21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH21">
         <f t="shared" ref="BH21:BH26" ca="1" si="130">IF(AB21=0,1.1,0)</f>
@@ -8611,7 +8634,7 @@
       </c>
       <c r="BK21">
         <f t="shared" ref="BK21:BK26" ca="1" si="133">IF(AE21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL21">
         <f t="shared" ref="BL21:BL26" ca="1" si="134">IF(AF21=0,1.1,0)</f>
@@ -8619,7 +8642,7 @@
       </c>
       <c r="BM21">
         <f t="shared" ref="BM21:BM26" ca="1" si="135">IF(AG21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.25">
@@ -8628,7 +8651,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="101"/>
@@ -8636,7 +8659,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="101"/>
@@ -8644,11 +8667,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="101"/>
@@ -8656,7 +8679,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="101"/>
@@ -8664,7 +8687,7 @@
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="101"/>
@@ -8672,7 +8695,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="101"/>
@@ -8680,11 +8703,11 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="101"/>
@@ -8692,7 +8715,7 @@
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="103"/>
@@ -8716,11 +8739,11 @@
       </c>
       <c r="X22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <f t="shared" ca="1" si="103"/>
@@ -8728,7 +8751,7 @@
       </c>
       <c r="AA22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB22">
         <f t="shared" ca="1" si="103"/>
@@ -8736,15 +8759,15 @@
       </c>
       <c r="AC22">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE22">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="103"/>
@@ -8752,11 +8775,11 @@
       </c>
       <c r="AG22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH22">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI22">
         <f t="shared" ca="1" si="105"/>
@@ -8764,7 +8787,7 @@
       </c>
       <c r="AJ22">
         <f t="shared" ca="1" si="106"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK22">
         <f t="shared" ca="1" si="107"/>
@@ -8772,11 +8795,11 @@
       </c>
       <c r="AL22">
         <f t="shared" ca="1" si="108"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM22">
         <f t="shared" ca="1" si="109"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="110"/>
@@ -8784,7 +8807,7 @@
       </c>
       <c r="AO22">
         <f t="shared" ca="1" si="111"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP22">
         <f t="shared" ca="1" si="112"/>
@@ -8792,7 +8815,7 @@
       </c>
       <c r="AQ22">
         <f t="shared" ca="1" si="113"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR22">
         <f t="shared" ca="1" si="114"/>
@@ -8800,7 +8823,7 @@
       </c>
       <c r="AS22">
         <f t="shared" ca="1" si="115"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT22">
         <f t="shared" ca="1" si="116"/>
@@ -8808,11 +8831,11 @@
       </c>
       <c r="AU22">
         <f t="shared" ca="1" si="117"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV22">
         <f t="shared" ca="1" si="118"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW22">
         <f t="shared" ca="1" si="119"/>
@@ -8820,7 +8843,7 @@
       </c>
       <c r="AX22">
         <f t="shared" ca="1" si="120"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY22">
         <f t="shared" ca="1" si="121"/>
@@ -8844,11 +8867,11 @@
       </c>
       <c r="BD22">
         <f t="shared" ca="1" si="126"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE22">
         <f t="shared" ca="1" si="127"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF22">
         <f t="shared" ca="1" si="128"/>
@@ -8856,7 +8879,7 @@
       </c>
       <c r="BG22">
         <f t="shared" ca="1" si="129"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH22">
         <f t="shared" ca="1" si="130"/>
@@ -8864,15 +8887,15 @@
       </c>
       <c r="BI22">
         <f t="shared" ca="1" si="131"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ22">
         <f t="shared" ca="1" si="132"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK22">
         <f t="shared" ca="1" si="133"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL22">
         <f t="shared" ca="1" si="134"/>
@@ -8880,7 +8903,7 @@
       </c>
       <c r="BM22">
         <f t="shared" ca="1" si="135"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.25">
@@ -8889,7 +8912,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="101"/>
@@ -8897,15 +8920,15 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="101"/>
@@ -8913,23 +8936,23 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="101"/>
@@ -8937,7 +8960,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="101"/>
@@ -8957,11 +8980,11 @@
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="103"/>
@@ -8989,7 +9012,7 @@
       </c>
       <c r="AA23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <f t="shared" ca="1" si="103"/>
@@ -9017,7 +9040,7 @@
       </c>
       <c r="AH23">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI23">
         <f t="shared" ca="1" si="105"/>
@@ -9025,15 +9048,15 @@
       </c>
       <c r="AJ23">
         <f t="shared" ca="1" si="106"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <f t="shared" ca="1" si="107"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <f t="shared" ca="1" si="108"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM23">
         <f t="shared" ca="1" si="109"/>
@@ -9041,23 +9064,23 @@
       </c>
       <c r="AN23">
         <f t="shared" ca="1" si="110"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP23">
         <f t="shared" ca="1" si="112"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <f t="shared" ca="1" si="113"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <f t="shared" ca="1" si="114"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS23">
         <f t="shared" ca="1" si="115"/>
@@ -9065,7 +9088,7 @@
       </c>
       <c r="AT23">
         <f t="shared" ca="1" si="116"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <f t="shared" ca="1" si="117"/>
@@ -9085,11 +9108,11 @@
       </c>
       <c r="AY23">
         <f t="shared" ca="1" si="121"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA23">
         <f t="shared" ca="1" si="123"/>
@@ -9117,7 +9140,7 @@
       </c>
       <c r="BG23">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH23">
         <f t="shared" ca="1" si="130"/>
@@ -9150,15 +9173,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="101"/>
@@ -9174,11 +9197,11 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="101"/>
@@ -9186,15 +9209,15 @@
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="101"/>
@@ -9210,7 +9233,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="101"/>
@@ -9218,11 +9241,11 @@
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="103"/>
@@ -9230,11 +9253,11 @@
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="103"/>
@@ -9242,19 +9265,19 @@
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC24">
         <f t="shared" ca="1" si="103"/>
@@ -9262,11 +9285,11 @@
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="103"/>
@@ -9274,19 +9297,19 @@
       </c>
       <c r="AG24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH24">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI24">
         <f t="shared" ca="1" si="105"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
         <f t="shared" ca="1" si="106"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK24">
         <f t="shared" ca="1" si="107"/>
@@ -9302,11 +9325,11 @@
       </c>
       <c r="AN24">
         <f t="shared" ca="1" si="110"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO24">
         <f t="shared" ca="1" si="111"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP24">
         <f t="shared" ca="1" si="112"/>
@@ -9314,15 +9337,15 @@
       </c>
       <c r="AQ24">
         <f t="shared" ca="1" si="113"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR24">
         <f t="shared" ca="1" si="114"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS24">
         <f t="shared" ca="1" si="115"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT24">
         <f t="shared" ca="1" si="116"/>
@@ -9338,7 +9361,7 @@
       </c>
       <c r="AW24">
         <f t="shared" ca="1" si="119"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX24">
         <f t="shared" ca="1" si="120"/>
@@ -9346,11 +9369,11 @@
       </c>
       <c r="AY24">
         <f t="shared" ca="1" si="121"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ24">
         <f t="shared" ca="1" si="122"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA24">
         <f t="shared" ca="1" si="123"/>
@@ -9358,11 +9381,11 @@
       </c>
       <c r="BB24">
         <f t="shared" ca="1" si="124"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC24">
         <f t="shared" ca="1" si="125"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD24">
         <f t="shared" ca="1" si="126"/>
@@ -9370,19 +9393,19 @@
       </c>
       <c r="BE24">
         <f t="shared" ca="1" si="127"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF24">
         <f t="shared" ca="1" si="128"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG24">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH24">
         <f t="shared" ca="1" si="130"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI24">
         <f t="shared" ca="1" si="131"/>
@@ -9390,11 +9413,11 @@
       </c>
       <c r="BJ24">
         <f t="shared" ca="1" si="132"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK24">
         <f t="shared" ca="1" si="133"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL24">
         <f t="shared" ca="1" si="134"/>
@@ -9402,7 +9425,7 @@
       </c>
       <c r="BM24">
         <f t="shared" ca="1" si="135"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.25">
@@ -9411,11 +9434,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="101"/>
@@ -9427,11 +9450,11 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="101"/>
@@ -9439,15 +9462,15 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="101"/>
@@ -9463,7 +9486,7 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="101"/>
@@ -9471,11 +9494,11 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="103"/>
@@ -9483,7 +9506,7 @@
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="103"/>
@@ -9491,15 +9514,15 @@
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="103"/>
@@ -9511,7 +9534,7 @@
       </c>
       <c r="AA25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <f t="shared" ca="1" si="103"/>
@@ -9523,11 +9546,11 @@
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="103"/>
@@ -9535,15 +9558,15 @@
       </c>
       <c r="AG25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH25">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI25">
         <f t="shared" ca="1" si="105"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <f t="shared" ca="1" si="106"/>
@@ -9555,11 +9578,11 @@
       </c>
       <c r="AL25">
         <f t="shared" ca="1" si="108"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="109"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="110"/>
@@ -9567,15 +9590,15 @@
       </c>
       <c r="AO25">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP25">
         <f t="shared" ca="1" si="112"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="113"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="114"/>
@@ -9591,7 +9614,7 @@
       </c>
       <c r="AU25">
         <f t="shared" ca="1" si="117"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV25">
         <f t="shared" ca="1" si="118"/>
@@ -9599,11 +9622,11 @@
       </c>
       <c r="AW25">
         <f t="shared" ca="1" si="119"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX25">
         <f t="shared" ca="1" si="120"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY25">
         <f t="shared" ca="1" si="121"/>
@@ -9611,7 +9634,7 @@
       </c>
       <c r="AZ25">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA25">
         <f t="shared" ca="1" si="123"/>
@@ -9619,15 +9642,15 @@
       </c>
       <c r="BB25">
         <f t="shared" ca="1" si="124"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC25">
         <f t="shared" ca="1" si="125"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <f t="shared" ca="1" si="126"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE25">
         <f t="shared" ca="1" si="127"/>
@@ -9639,7 +9662,7 @@
       </c>
       <c r="BG25">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH25">
         <f t="shared" ca="1" si="130"/>
@@ -9651,11 +9674,11 @@
       </c>
       <c r="BJ25">
         <f t="shared" ca="1" si="132"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK25">
         <f t="shared" ca="1" si="133"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL25">
         <f t="shared" ca="1" si="134"/>
@@ -9663,7 +9686,7 @@
       </c>
       <c r="BM25">
         <f t="shared" ca="1" si="135"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.25">
@@ -9684,7 +9707,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="101"/>
@@ -9692,11 +9715,11 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="101"/>
@@ -9704,15 +9727,15 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="101"/>
@@ -9724,7 +9747,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="101"/>
@@ -9736,11 +9759,11 @@
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="103"/>
@@ -9756,11 +9779,11 @@
       </c>
       <c r="W26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="103"/>
@@ -9768,7 +9791,7 @@
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="103"/>
@@ -9776,7 +9799,7 @@
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <f t="shared" ca="1" si="103"/>
@@ -9788,15 +9811,15 @@
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="104"/>
@@ -9812,7 +9835,7 @@
       </c>
       <c r="AK26">
         <f t="shared" ca="1" si="107"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL26">
         <f t="shared" ca="1" si="108"/>
@@ -9820,11 +9843,11 @@
       </c>
       <c r="AM26">
         <f t="shared" ca="1" si="109"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN26">
         <f t="shared" ca="1" si="110"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO26">
         <f t="shared" ca="1" si="111"/>
@@ -9832,15 +9855,15 @@
       </c>
       <c r="AP26">
         <f t="shared" ca="1" si="112"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ26">
         <f t="shared" ca="1" si="113"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR26">
         <f t="shared" ca="1" si="114"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS26">
         <f t="shared" ca="1" si="115"/>
@@ -9852,7 +9875,7 @@
       </c>
       <c r="AU26">
         <f t="shared" ca="1" si="117"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV26">
         <f t="shared" ca="1" si="118"/>
@@ -9864,11 +9887,11 @@
       </c>
       <c r="AX26">
         <f t="shared" ca="1" si="120"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY26">
         <f t="shared" ca="1" si="121"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <f t="shared" ca="1" si="122"/>
@@ -9884,11 +9907,11 @@
       </c>
       <c r="BC26">
         <f t="shared" ca="1" si="125"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD26">
         <f t="shared" ca="1" si="126"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE26">
         <f t="shared" ca="1" si="127"/>
@@ -9896,7 +9919,7 @@
       </c>
       <c r="BF26">
         <f t="shared" ca="1" si="128"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG26">
         <f t="shared" ca="1" si="129"/>
@@ -9904,7 +9927,7 @@
       </c>
       <c r="BH26">
         <f t="shared" ca="1" si="130"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI26">
         <f t="shared" ca="1" si="131"/>
@@ -9916,15 +9939,15 @@
       </c>
       <c r="BK26">
         <f t="shared" ca="1" si="133"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL26">
         <f t="shared" ca="1" si="134"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM26">
         <f t="shared" ca="1" si="135"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:65" x14ac:dyDescent="0.25">
@@ -11711,11 +11734,11 @@
       </c>
       <c r="B45">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:S54" ca="1" si="200">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="200"/>
@@ -11743,7 +11766,7 @@
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="200"/>
@@ -11751,7 +11774,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="200"/>
@@ -11759,19 +11782,19 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R45">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -11779,7 +11802,7 @@
       </c>
       <c r="S45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T45">
         <f t="shared" ref="S45:AG54" ca="1" si="201">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -11787,7 +11810,7 @@
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="201"/>
@@ -11795,11 +11818,11 @@
       </c>
       <c r="W45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <f t="shared" ca="1" si="201"/>
@@ -11811,7 +11834,7 @@
       </c>
       <c r="AA45">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <f t="shared" ca="1" si="201"/>
@@ -11835,15 +11858,15 @@
       </c>
       <c r="AG45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH45">
         <f ca="1">B45</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI45">
         <f t="shared" ref="AI45:BM45" ca="1" si="202">C45</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
         <f t="shared" ca="1" si="202"/>
@@ -11871,7 +11894,7 @@
       </c>
       <c r="AP45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ45">
         <f t="shared" ca="1" si="202"/>
@@ -11879,7 +11902,7 @@
       </c>
       <c r="AR45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS45">
         <f t="shared" ca="1" si="202"/>
@@ -11887,19 +11910,19 @@
       </c>
       <c r="AT45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <f ca="1">Q45</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX45">
         <f t="shared" ca="1" si="202"/>
@@ -11907,7 +11930,7 @@
       </c>
       <c r="AY45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ45">
         <f t="shared" ca="1" si="202"/>
@@ -11915,7 +11938,7 @@
       </c>
       <c r="BA45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB45">
         <f t="shared" ca="1" si="202"/>
@@ -11923,11 +11946,11 @@
       </c>
       <c r="BC45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE45">
         <f t="shared" ca="1" si="202"/>
@@ -11939,7 +11962,7 @@
       </c>
       <c r="BG45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH45">
         <f t="shared" ca="1" si="202"/>
@@ -11963,7 +11986,7 @@
       </c>
       <c r="BM45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:102" x14ac:dyDescent="0.25">
@@ -11972,11 +11995,11 @@
       </c>
       <c r="B46">
         <f t="shared" ref="B46:B54" ca="1" si="203">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="200"/>
@@ -11984,7 +12007,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="200"/>
@@ -11992,7 +12015,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="200"/>
@@ -12000,11 +12023,11 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="200"/>
@@ -12020,7 +12043,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="200"/>
@@ -12032,7 +12055,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="200"/>
@@ -12040,7 +12063,7 @@
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="201"/>
@@ -12048,11 +12071,11 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="201"/>
@@ -12072,7 +12095,7 @@
       </c>
       <c r="AA46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="201"/>
@@ -12080,7 +12103,7 @@
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="201"/>
@@ -12088,7 +12111,7 @@
       </c>
       <c r="AE46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF46">
         <f t="shared" ca="1" si="201"/>
@@ -12100,11 +12123,11 @@
       </c>
       <c r="AH46">
         <f t="shared" ref="AH46:AH52" ca="1" si="204">B46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI46">
         <f t="shared" ref="AI46:AI52" ca="1" si="205">C46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ46">
         <f t="shared" ref="AJ46:AJ52" ca="1" si="206">D46</f>
@@ -12112,7 +12135,7 @@
       </c>
       <c r="AK46">
         <f t="shared" ref="AK46:AK52" ca="1" si="207">E46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <f t="shared" ref="AL46:AL52" ca="1" si="208">F46</f>
@@ -12120,7 +12143,7 @@
       </c>
       <c r="AM46">
         <f t="shared" ref="AM46:AM52" ca="1" si="209">G46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <f t="shared" ref="AN46:AN52" ca="1" si="210">H46</f>
@@ -12128,11 +12151,11 @@
       </c>
       <c r="AO46">
         <f t="shared" ref="AO46:AO52" ca="1" si="211">I46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP46">
         <f t="shared" ref="AP46:AP52" ca="1" si="212">J46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
         <f t="shared" ref="AQ46:AQ52" ca="1" si="213">K46</f>
@@ -12148,7 +12171,7 @@
       </c>
       <c r="AT46">
         <f t="shared" ref="AT46:AT52" ca="1" si="216">N46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU46">
         <f t="shared" ref="AU46:AU52" ca="1" si="217">O46</f>
@@ -12160,7 +12183,7 @@
       </c>
       <c r="AW46">
         <f t="shared" ref="AW46:AW52" ca="1" si="219">Q46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX46">
         <f t="shared" ref="AX46:AX52" ca="1" si="220">R46</f>
@@ -12168,7 +12191,7 @@
       </c>
       <c r="AY46">
         <f t="shared" ref="AY46:AY52" ca="1" si="221">S46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ46">
         <f t="shared" ref="AZ46:AZ52" ca="1" si="222">T46</f>
@@ -12176,11 +12199,11 @@
       </c>
       <c r="BA46">
         <f t="shared" ref="BA46:BA52" ca="1" si="223">U46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB46">
         <f t="shared" ref="BB46:BB52" ca="1" si="224">V46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC46">
         <f t="shared" ref="BC46:BC52" ca="1" si="225">W46</f>
@@ -12200,7 +12223,7 @@
       </c>
       <c r="BG46">
         <f t="shared" ref="BG46:BG52" ca="1" si="229">AA46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH46">
         <f t="shared" ref="BH46:BH52" ca="1" si="230">AB46</f>
@@ -12208,7 +12231,7 @@
       </c>
       <c r="BI46">
         <f t="shared" ref="BI46:BI52" ca="1" si="231">AC46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
         <f t="shared" ref="BJ46:BJ52" ca="1" si="232">AD46</f>
@@ -12216,7 +12239,7 @@
       </c>
       <c r="BK46">
         <f t="shared" ref="BK46:BK52" ca="1" si="233">AE46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL46">
         <f t="shared" ref="BL46:BL52" ca="1" si="234">AF46</f>
@@ -12233,23 +12256,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="200"/>
@@ -12257,7 +12280,7 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="200"/>
@@ -12265,7 +12288,7 @@
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="200"/>
@@ -12273,11 +12296,11 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="200"/>
@@ -12285,7 +12308,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="200"/>
@@ -12293,7 +12316,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="200"/>
@@ -12305,7 +12328,7 @@
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="201"/>
@@ -12313,11 +12336,11 @@
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="201"/>
@@ -12325,27 +12348,27 @@
       </c>
       <c r="Y47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="201"/>
@@ -12357,27 +12380,27 @@
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="204"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="205"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ47">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK47">
         <f t="shared" ca="1" si="207"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <f t="shared" ca="1" si="208"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="209"/>
@@ -12385,7 +12408,7 @@
       </c>
       <c r="AN47">
         <f t="shared" ca="1" si="210"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO47">
         <f t="shared" ca="1" si="211"/>
@@ -12393,7 +12416,7 @@
       </c>
       <c r="AP47">
         <f t="shared" ca="1" si="212"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="213"/>
@@ -12401,11 +12424,11 @@
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="214"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS47">
         <f t="shared" ca="1" si="215"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT47">
         <f t="shared" ca="1" si="216"/>
@@ -12413,7 +12436,7 @@
       </c>
       <c r="AU47">
         <f t="shared" ca="1" si="217"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV47">
         <f t="shared" ca="1" si="218"/>
@@ -12421,7 +12444,7 @@
       </c>
       <c r="AW47">
         <f t="shared" ca="1" si="219"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX47">
         <f t="shared" ca="1" si="220"/>
@@ -12433,7 +12456,7 @@
       </c>
       <c r="AZ47">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA47">
         <f t="shared" ca="1" si="223"/>
@@ -12441,11 +12464,11 @@
       </c>
       <c r="BB47">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC47">
         <f t="shared" ca="1" si="225"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD47">
         <f t="shared" ca="1" si="226"/>
@@ -12453,27 +12476,27 @@
       </c>
       <c r="BE47">
         <f t="shared" ca="1" si="227"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF47">
         <f t="shared" ca="1" si="228"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG47">
         <f t="shared" ca="1" si="229"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH47">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI47">
         <f t="shared" ca="1" si="231"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ47">
         <f t="shared" ca="1" si="232"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK47">
         <f t="shared" ca="1" si="233"/>
@@ -12485,7 +12508,7 @@
       </c>
       <c r="BM47">
         <f t="shared" ca="1" si="235"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:102" x14ac:dyDescent="0.25">
@@ -12494,7 +12517,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="200"/>
@@ -12506,7 +12529,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="200"/>
@@ -12530,7 +12553,7 @@
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="200"/>
@@ -12542,15 +12565,15 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="200"/>
@@ -12566,19 +12589,19 @@
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="201"/>
@@ -12586,7 +12609,7 @@
       </c>
       <c r="Y48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <f t="shared" ca="1" si="201"/>
@@ -12594,11 +12617,11 @@
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC48">
         <f t="shared" ca="1" si="201"/>
@@ -12606,7 +12629,7 @@
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="201"/>
@@ -12614,15 +12637,15 @@
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="204"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="205"/>
@@ -12634,7 +12657,7 @@
       </c>
       <c r="AK48">
         <f t="shared" ca="1" si="207"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <f t="shared" ca="1" si="208"/>
@@ -12658,7 +12681,7 @@
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="213"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="214"/>
@@ -12670,15 +12693,15 @@
       </c>
       <c r="AT48">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU48">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <f t="shared" ca="1" si="218"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW48">
         <f t="shared" ca="1" si="219"/>
@@ -12694,19 +12717,19 @@
       </c>
       <c r="AZ48">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA48">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB48">
         <f t="shared" ca="1" si="224"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC48">
         <f t="shared" ca="1" si="225"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD48">
         <f t="shared" ca="1" si="226"/>
@@ -12714,7 +12737,7 @@
       </c>
       <c r="BE48">
         <f t="shared" ca="1" si="227"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF48">
         <f t="shared" ca="1" si="228"/>
@@ -12722,11 +12745,11 @@
       </c>
       <c r="BG48">
         <f t="shared" ca="1" si="229"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH48">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI48">
         <f t="shared" ca="1" si="231"/>
@@ -12734,7 +12757,7 @@
       </c>
       <c r="BJ48">
         <f t="shared" ca="1" si="232"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK48">
         <f t="shared" ca="1" si="233"/>
@@ -12742,11 +12765,11 @@
       </c>
       <c r="BL48">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM48">
         <f t="shared" ca="1" si="235"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:65" x14ac:dyDescent="0.25">
@@ -12755,15 +12778,15 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="200"/>
@@ -12771,7 +12794,7 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="200"/>
@@ -12783,11 +12806,11 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="200"/>
@@ -12807,7 +12830,7 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="200"/>
@@ -12815,11 +12838,11 @@
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="201"/>
@@ -12827,11 +12850,11 @@
       </c>
       <c r="T49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="201"/>
@@ -12847,7 +12870,7 @@
       </c>
       <c r="Y49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="201"/>
@@ -12871,27 +12894,27 @@
       </c>
       <c r="AE49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <f t="shared" ca="1" si="204"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI49">
         <f t="shared" ca="1" si="205"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ49">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK49">
         <f t="shared" ca="1" si="207"/>
@@ -12899,7 +12922,7 @@
       </c>
       <c r="AL49">
         <f t="shared" ca="1" si="208"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM49">
         <f t="shared" ca="1" si="209"/>
@@ -12911,11 +12934,11 @@
       </c>
       <c r="AO49">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP49">
         <f t="shared" ca="1" si="212"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ49">
         <f t="shared" ca="1" si="213"/>
@@ -12935,7 +12958,7 @@
       </c>
       <c r="AU49">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV49">
         <f t="shared" ca="1" si="218"/>
@@ -12943,11 +12966,11 @@
       </c>
       <c r="AW49">
         <f t="shared" ca="1" si="219"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX49">
         <f t="shared" ca="1" si="220"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY49">
         <f t="shared" ca="1" si="221"/>
@@ -12955,11 +12978,11 @@
       </c>
       <c r="AZ49">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA49">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB49">
         <f t="shared" ca="1" si="224"/>
@@ -12975,7 +12998,7 @@
       </c>
       <c r="BE49">
         <f t="shared" ca="1" si="227"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF49">
         <f t="shared" ca="1" si="228"/>
@@ -12999,15 +13022,15 @@
       </c>
       <c r="BK49">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL49">
         <f t="shared" ca="1" si="234"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM49">
         <f t="shared" ca="1" si="235"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:65" x14ac:dyDescent="0.25">
@@ -13016,7 +13039,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="203"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="200"/>
@@ -13028,15 +13051,15 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="200"/>
@@ -13044,7 +13067,7 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="200"/>
@@ -13064,7 +13087,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="200"/>
@@ -13088,7 +13111,7 @@
       </c>
       <c r="T50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="201"/>
@@ -13096,11 +13119,11 @@
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="201"/>
@@ -13112,11 +13135,11 @@
       </c>
       <c r="Z50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <f t="shared" ca="1" si="201"/>
@@ -13128,15 +13151,15 @@
       </c>
       <c r="AD50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG50">
         <f t="shared" ca="1" si="201"/>
@@ -13144,7 +13167,7 @@
       </c>
       <c r="AH50">
         <f t="shared" ca="1" si="204"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI50">
         <f t="shared" ca="1" si="205"/>
@@ -13156,15 +13179,15 @@
       </c>
       <c r="AK50">
         <f t="shared" ca="1" si="207"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL50">
         <f t="shared" ca="1" si="208"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN50">
         <f t="shared" ca="1" si="210"/>
@@ -13172,7 +13195,7 @@
       </c>
       <c r="AO50">
         <f t="shared" ca="1" si="211"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP50">
         <f t="shared" ca="1" si="212"/>
@@ -13192,7 +13215,7 @@
       </c>
       <c r="AT50">
         <f t="shared" ca="1" si="216"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU50">
         <f t="shared" ca="1" si="217"/>
@@ -13216,7 +13239,7 @@
       </c>
       <c r="AZ50">
         <f t="shared" ca="1" si="222"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA50">
         <f t="shared" ca="1" si="223"/>
@@ -13224,11 +13247,11 @@
       </c>
       <c r="BB50">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC50">
         <f t="shared" ca="1" si="225"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD50">
         <f t="shared" ca="1" si="226"/>
@@ -13240,11 +13263,11 @@
       </c>
       <c r="BF50">
         <f t="shared" ca="1" si="228"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG50">
         <f t="shared" ca="1" si="229"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH50">
         <f t="shared" ca="1" si="230"/>
@@ -13256,15 +13279,15 @@
       </c>
       <c r="BJ50">
         <f t="shared" ca="1" si="232"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK50">
         <f t="shared" ca="1" si="233"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL50">
         <f t="shared" ca="1" si="234"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM50">
         <f t="shared" ca="1" si="235"/>
@@ -13281,19 +13304,19 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="200"/>
@@ -13301,7 +13324,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="200"/>
@@ -13313,11 +13336,11 @@
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="200"/>
@@ -13325,7 +13348,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="200"/>
@@ -13333,11 +13356,11 @@
       </c>
       <c r="P51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="200"/>
@@ -13353,7 +13376,7 @@
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="201"/>
@@ -13361,7 +13384,7 @@
       </c>
       <c r="W51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="201"/>
@@ -13377,7 +13400,7 @@
       </c>
       <c r="AA51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB51">
         <f t="shared" ca="1" si="201"/>
@@ -13385,7 +13408,7 @@
       </c>
       <c r="AC51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <f t="shared" ca="1" si="201"/>
@@ -13393,7 +13416,7 @@
       </c>
       <c r="AE51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="201"/>
@@ -13401,7 +13424,7 @@
       </c>
       <c r="AG51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH51">
         <f t="shared" ca="1" si="204"/>
@@ -13409,19 +13432,19 @@
       </c>
       <c r="AI51">
         <f t="shared" ca="1" si="205"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK51">
         <f t="shared" ca="1" si="207"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL51">
         <f t="shared" ca="1" si="208"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM51">
         <f t="shared" ca="1" si="209"/>
@@ -13429,7 +13452,7 @@
       </c>
       <c r="AN51">
         <f t="shared" ca="1" si="210"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO51">
         <f t="shared" ca="1" si="211"/>
@@ -13441,11 +13464,11 @@
       </c>
       <c r="AQ51">
         <f t="shared" ca="1" si="213"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="214"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS51">
         <f t="shared" ca="1" si="215"/>
@@ -13453,7 +13476,7 @@
       </c>
       <c r="AT51">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU51">
         <f t="shared" ca="1" si="217"/>
@@ -13461,11 +13484,11 @@
       </c>
       <c r="AV51">
         <f t="shared" ca="1" si="218"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW51">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX51">
         <f t="shared" ca="1" si="220"/>
@@ -13481,7 +13504,7 @@
       </c>
       <c r="BA51">
         <f t="shared" ca="1" si="223"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB51">
         <f t="shared" ca="1" si="224"/>
@@ -13489,7 +13512,7 @@
       </c>
       <c r="BC51">
         <f t="shared" ca="1" si="225"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD51">
         <f t="shared" ca="1" si="226"/>
@@ -13505,7 +13528,7 @@
       </c>
       <c r="BG51">
         <f t="shared" ca="1" si="229"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH51">
         <f t="shared" ca="1" si="230"/>
@@ -13513,7 +13536,7 @@
       </c>
       <c r="BI51">
         <f t="shared" ca="1" si="231"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ51">
         <f t="shared" ca="1" si="232"/>
@@ -13521,7 +13544,7 @@
       </c>
       <c r="BK51">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL51">
         <f t="shared" ca="1" si="234"/>
@@ -13529,7 +13552,7 @@
       </c>
       <c r="BM51">
         <f t="shared" ca="1" si="235"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:65" x14ac:dyDescent="0.25">
@@ -13546,7 +13569,7 @@
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="200"/>
@@ -13554,19 +13577,19 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="200"/>
@@ -13582,7 +13605,7 @@
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="200"/>
@@ -13590,11 +13613,11 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <f t="shared" ca="1" si="200"/>
@@ -13602,7 +13625,7 @@
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <f t="shared" ca="1" si="201"/>
@@ -13610,11 +13633,11 @@
       </c>
       <c r="T52">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="201"/>
@@ -13622,7 +13645,7 @@
       </c>
       <c r="W52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="201"/>
@@ -13646,19 +13669,19 @@
       </c>
       <c r="AC52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE52">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF52">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG52">
         <f t="shared" ca="1" si="201"/>
@@ -13674,7 +13697,7 @@
       </c>
       <c r="AJ52">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK52">
         <f t="shared" ca="1" si="207"/>
@@ -13682,19 +13705,19 @@
       </c>
       <c r="AL52">
         <f t="shared" ca="1" si="208"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM52">
         <f t="shared" ca="1" si="209"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN52">
         <f t="shared" ca="1" si="210"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO52">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP52">
         <f t="shared" ca="1" si="212"/>
@@ -13710,7 +13733,7 @@
       </c>
       <c r="AS52">
         <f t="shared" ca="1" si="215"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT52">
         <f t="shared" ca="1" si="216"/>
@@ -13718,11 +13741,11 @@
       </c>
       <c r="AU52">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV52">
         <f t="shared" ca="1" si="218"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW52">
         <f t="shared" ca="1" si="219"/>
@@ -13730,7 +13753,7 @@
       </c>
       <c r="AX52">
         <f t="shared" ca="1" si="220"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY52">
         <f t="shared" ca="1" si="221"/>
@@ -13738,11 +13761,11 @@
       </c>
       <c r="AZ52">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA52">
         <f t="shared" ca="1" si="223"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB52">
         <f t="shared" ca="1" si="224"/>
@@ -13750,7 +13773,7 @@
       </c>
       <c r="BC52">
         <f t="shared" ca="1" si="225"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD52">
         <f t="shared" ca="1" si="226"/>
@@ -13774,19 +13797,19 @@
       </c>
       <c r="BI52">
         <f t="shared" ca="1" si="231"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ52">
         <f t="shared" ca="1" si="232"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK52">
         <f t="shared" ca="1" si="233"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL52">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM52">
         <f t="shared" ca="1" si="235"/>
@@ -13799,7 +13822,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="200"/>
@@ -13807,11 +13830,11 @@
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="200"/>
@@ -13819,11 +13842,11 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="200"/>
@@ -13831,7 +13854,7 @@
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="200"/>
@@ -13839,11 +13862,11 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="200"/>
@@ -13855,7 +13878,7 @@
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="200"/>
@@ -13863,7 +13886,7 @@
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="201"/>
@@ -13871,7 +13894,7 @@
       </c>
       <c r="T53">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="201"/>
@@ -13891,11 +13914,11 @@
       </c>
       <c r="Y53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <f t="shared" ca="1" si="201"/>
@@ -13911,7 +13934,7 @@
       </c>
       <c r="AD53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE53">
         <f t="shared" ca="1" si="201"/>
@@ -13923,11 +13946,11 @@
       </c>
       <c r="AG53">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH53">
         <f t="shared" ref="AH53:AH54" ca="1" si="236">B53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI53">
         <f t="shared" ref="AI53:AI54" ca="1" si="237">C53</f>
@@ -13935,11 +13958,11 @@
       </c>
       <c r="AJ53">
         <f t="shared" ref="AJ53:AJ54" ca="1" si="238">D53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK53">
         <f t="shared" ref="AK53:AK54" ca="1" si="239">E53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <f t="shared" ref="AL53:AL54" ca="1" si="240">F53</f>
@@ -13947,11 +13970,11 @@
       </c>
       <c r="AM53">
         <f t="shared" ref="AM53:AM54" ca="1" si="241">G53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN53">
         <f t="shared" ref="AN53:AN54" ca="1" si="242">H53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO53">
         <f t="shared" ref="AO53:AO54" ca="1" si="243">I53</f>
@@ -13959,7 +13982,7 @@
       </c>
       <c r="AP53">
         <f t="shared" ref="AP53:AP54" ca="1" si="244">J53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ53">
         <f t="shared" ref="AQ53:AQ54" ca="1" si="245">K53</f>
@@ -13967,11 +13990,11 @@
       </c>
       <c r="AR53">
         <f t="shared" ref="AR53:AR54" ca="1" si="246">L53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS53">
         <f t="shared" ref="AS53:AS54" ca="1" si="247">M53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT53">
         <f t="shared" ref="AT53:AT54" ca="1" si="248">N53</f>
@@ -13983,7 +14006,7 @@
       </c>
       <c r="AV53">
         <f t="shared" ref="AV53:AV54" ca="1" si="250">P53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW53">
         <f t="shared" ref="AW53:AW54" ca="1" si="251">Q53</f>
@@ -13991,7 +14014,7 @@
       </c>
       <c r="AX53">
         <f t="shared" ref="AX53:AX54" ca="1" si="252">R53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY53">
         <f t="shared" ref="AY53:AY54" ca="1" si="253">S53</f>
@@ -13999,7 +14022,7 @@
       </c>
       <c r="AZ53">
         <f t="shared" ref="AZ53:AZ54" ca="1" si="254">T53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA53">
         <f t="shared" ref="BA53:BA54" ca="1" si="255">U53</f>
@@ -14019,11 +14042,11 @@
       </c>
       <c r="BE53">
         <f t="shared" ref="BE53:BE54" ca="1" si="259">Y53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF53">
         <f t="shared" ref="BF53:BF54" ca="1" si="260">Z53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG53">
         <f t="shared" ref="BG53:BG54" ca="1" si="261">AA53</f>
@@ -14039,7 +14062,7 @@
       </c>
       <c r="BJ53">
         <f t="shared" ref="BJ53:BJ54" ca="1" si="264">AD53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK53">
         <f t="shared" ref="BK53:BK54" ca="1" si="265">AE53</f>
@@ -14051,7 +14074,7 @@
       </c>
       <c r="BM53">
         <f t="shared" ref="BM53:BM54" ca="1" si="267">AG53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:65" x14ac:dyDescent="0.25">
@@ -14060,7 +14083,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="203"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="200"/>
@@ -14068,15 +14091,15 @@
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="200"/>
@@ -14084,27 +14107,27 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <f t="shared" ca="1" si="200"/>
@@ -14112,23 +14135,23 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <f t="shared" ca="1" si="201"/>
@@ -14136,39 +14159,39 @@
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <f t="shared" ca="1" si="201"/>
@@ -14180,7 +14203,7 @@
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG54">
         <f t="shared" ca="1" si="201"/>
@@ -14188,7 +14211,7 @@
       </c>
       <c r="AH54">
         <f t="shared" ca="1" si="236"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI54">
         <f t="shared" ca="1" si="237"/>
@@ -14196,15 +14219,15 @@
       </c>
       <c r="AJ54">
         <f t="shared" ca="1" si="238"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK54">
         <f t="shared" ca="1" si="239"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <f t="shared" ca="1" si="240"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM54">
         <f t="shared" ca="1" si="241"/>
@@ -14212,27 +14235,27 @@
       </c>
       <c r="AN54">
         <f t="shared" ca="1" si="242"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO54">
         <f t="shared" ca="1" si="243"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP54">
         <f t="shared" ca="1" si="244"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="245"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="246"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS54">
         <f t="shared" ca="1" si="247"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT54">
         <f t="shared" ca="1" si="248"/>
@@ -14240,23 +14263,23 @@
       </c>
       <c r="AU54">
         <f t="shared" ca="1" si="249"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV54">
         <f t="shared" ca="1" si="250"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW54">
         <f t="shared" ca="1" si="251"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX54">
         <f t="shared" ca="1" si="252"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY54">
         <f t="shared" ca="1" si="253"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ54">
         <f t="shared" ca="1" si="254"/>
@@ -14264,39 +14287,39 @@
       </c>
       <c r="BA54">
         <f t="shared" ca="1" si="255"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB54">
         <f t="shared" ca="1" si="256"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC54">
         <f t="shared" ca="1" si="257"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD54">
         <f t="shared" ca="1" si="258"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE54">
         <f t="shared" ca="1" si="259"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF54">
         <f t="shared" ca="1" si="260"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG54">
         <f t="shared" ca="1" si="261"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH54">
         <f t="shared" ca="1" si="262"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI54">
         <f t="shared" ca="1" si="263"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
         <f t="shared" ca="1" si="264"/>
@@ -14308,7 +14331,7 @@
       </c>
       <c r="BL54">
         <f t="shared" ca="1" si="266"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM54">
         <f t="shared" ca="1" si="267"/>
@@ -15240,8 +15263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CW48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33087,8 +33110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CW50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42415,8 +42438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X91" sqref="X91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57782,21 +57805,21 @@
         <v>0</v>
       </c>
       <c r="U57" s="2"/>
-      <c r="V57" s="4">
-        <f>AVERAGE(BO2:CT2)</f>
-        <v>4.3066315789473678E-8</v>
-      </c>
-      <c r="W57" s="4">
-        <f>MAX(BO2:CT2)</f>
-        <v>5.7030000000000002E-8</v>
-      </c>
-      <c r="X57" s="4">
-        <f>AVERAGE(CU2:DZ2)</f>
-        <v>1.0251736842105262E-8</v>
-      </c>
-      <c r="Y57" s="4">
-        <f>MAX(CU2:DZ2)</f>
-        <v>1.373E-8</v>
+      <c r="V57" s="28">
+        <f>AVERAGE(BO2:CT2)*10^9</f>
+        <v>43.066315789473677</v>
+      </c>
+      <c r="W57" s="28">
+        <f>MAX(BO2:CT2)*10^9</f>
+        <v>57.03</v>
+      </c>
+      <c r="X57" s="28">
+        <f>AVERAGE(CU2:DZ2)*10^9</f>
+        <v>10.251736842105261</v>
+      </c>
+      <c r="Y57" s="28">
+        <f>MAX(CU2:DZ2)*10^9</f>
+        <v>13.729999999999999</v>
       </c>
     </row>
     <row r="58" spans="2:98" x14ac:dyDescent="0.25">
@@ -57868,21 +57891,21 @@
         <v>1</v>
       </c>
       <c r="U58" s="2"/>
-      <c r="V58" s="4">
-        <f t="shared" ref="V58:V61" si="69">AVERAGE(BO3:CT3)</f>
-        <v>4.795375E-8</v>
-      </c>
-      <c r="W58" s="4">
-        <f t="shared" ref="W58:W61" si="70">MAX(BO3:CT3)</f>
-        <v>5.8630000000000003E-8</v>
-      </c>
-      <c r="X58" s="4">
-        <f t="shared" ref="X58:X61" si="71">AVERAGE(CU3:DZ3)</f>
-        <v>9.1564374999999982E-9</v>
-      </c>
-      <c r="Y58" s="4">
-        <f>MAX(CU3:DZ3)</f>
-        <v>1.2720000000000001E-8</v>
+      <c r="V58" s="28">
+        <f t="shared" ref="V58:V66" si="69">AVERAGE(BO3:CT3)*10^9</f>
+        <v>47.953749999999999</v>
+      </c>
+      <c r="W58" s="28">
+        <f t="shared" ref="W58:W66" si="70">MAX(BO3:CT3)*10^9</f>
+        <v>58.63</v>
+      </c>
+      <c r="X58" s="28">
+        <f t="shared" ref="X58:X66" si="71">AVERAGE(CU3:DZ3)*10^9</f>
+        <v>9.1564374999999991</v>
+      </c>
+      <c r="Y58" s="28">
+        <f t="shared" ref="Y58:Y66" si="72">MAX(CU3:DZ3)*10^9</f>
+        <v>12.72</v>
       </c>
     </row>
     <row r="59" spans="2:98" x14ac:dyDescent="0.25">
@@ -57954,21 +57977,21 @@
         <v>0</v>
       </c>
       <c r="U59" s="2"/>
-      <c r="V59" s="4">
+      <c r="V59" s="28">
         <f t="shared" si="69"/>
-        <v>4.7364705882352927E-8</v>
-      </c>
-      <c r="W59" s="4">
+        <v>47.364705882352929</v>
+      </c>
+      <c r="W59" s="28">
         <f t="shared" si="70"/>
-        <v>5.6979999999999998E-8</v>
-      </c>
-      <c r="X59" s="4">
+        <v>56.98</v>
+      </c>
+      <c r="X59" s="28">
         <f t="shared" si="71"/>
-        <v>1.0972058823529412E-8</v>
-      </c>
-      <c r="Y59" s="4">
-        <f t="shared" ref="Y59:Y61" si="72">MAX(CU4:DZ4)</f>
-        <v>1.376E-8</v>
+        <v>10.972058823529412</v>
+      </c>
+      <c r="Y59" s="28">
+        <f t="shared" si="72"/>
+        <v>13.76</v>
       </c>
     </row>
     <row r="60" spans="2:98" x14ac:dyDescent="0.25">
@@ -58040,21 +58063,21 @@
         <v>1</v>
       </c>
       <c r="U60" s="2"/>
-      <c r="V60" s="4">
+      <c r="V60" s="28">
         <f t="shared" si="69"/>
-        <v>4.7131333333333323E-8</v>
-      </c>
-      <c r="W60" s="4">
+        <v>47.131333333333323</v>
+      </c>
+      <c r="W60" s="28">
         <f t="shared" si="70"/>
-        <v>5.7130000000000003E-8</v>
-      </c>
-      <c r="X60" s="4">
+        <v>57.13</v>
+      </c>
+      <c r="X60" s="28">
         <f t="shared" si="71"/>
-        <v>1.0004133333333335E-8</v>
-      </c>
-      <c r="Y60" s="4">
+        <v>10.004133333333336</v>
+      </c>
+      <c r="Y60" s="28">
         <f t="shared" si="72"/>
-        <v>1.2250000000000001E-8</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="61" spans="2:98" x14ac:dyDescent="0.25">
@@ -58126,21 +58149,21 @@
         <v>0</v>
       </c>
       <c r="U61" s="2"/>
-      <c r="V61" s="4">
+      <c r="V61" s="28">
         <f t="shared" si="69"/>
-        <v>4.1000434782608689E-8</v>
-      </c>
-      <c r="W61" s="4">
+        <v>41.000434782608693</v>
+      </c>
+      <c r="W61" s="28">
         <f t="shared" si="70"/>
-        <v>5.5789999999999999E-8</v>
-      </c>
-      <c r="X61" s="4">
+        <v>55.79</v>
+      </c>
+      <c r="X61" s="28">
         <f t="shared" si="71"/>
-        <v>9.6100000000000013E-9</v>
-      </c>
-      <c r="Y61" s="4">
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="Y61" s="28">
         <f t="shared" si="72"/>
-        <v>1.254E-8</v>
+        <v>12.540000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:98" x14ac:dyDescent="0.25">
@@ -58212,21 +58235,21 @@
         <v>0</v>
       </c>
       <c r="U62" s="2"/>
-      <c r="V62" s="4">
-        <f t="shared" ref="V62:V65" si="73">AVERAGE(BO7:CT7)</f>
-        <v>4.2350714285714286E-8</v>
-      </c>
-      <c r="W62" s="4">
-        <f t="shared" ref="W62:W65" si="74">MAX(BO7:CT7)</f>
-        <v>5.4650000000000003E-8</v>
-      </c>
-      <c r="X62" s="4">
-        <f t="shared" ref="X62:X65" si="75">AVERAGE(CU7:DZ7)</f>
-        <v>9.0137142857142852E-9</v>
-      </c>
-      <c r="Y62" s="4">
-        <f t="shared" ref="Y62:Y65" si="76">MAX(CU7:DZ7)</f>
-        <v>1.178E-8</v>
+      <c r="V62" s="28">
+        <f t="shared" si="69"/>
+        <v>42.35071428571429</v>
+      </c>
+      <c r="W62" s="28">
+        <f t="shared" si="70"/>
+        <v>54.650000000000006</v>
+      </c>
+      <c r="X62" s="28">
+        <f t="shared" si="71"/>
+        <v>9.0137142857142845</v>
+      </c>
+      <c r="Y62" s="28">
+        <f t="shared" si="72"/>
+        <v>11.780000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:98" x14ac:dyDescent="0.25">
@@ -58298,21 +58321,21 @@
         <v>1</v>
       </c>
       <c r="U63" s="2"/>
-      <c r="V63" s="4">
-        <f t="shared" si="73"/>
-        <v>5.2305882352941173E-8</v>
-      </c>
-      <c r="W63" s="4">
-        <f t="shared" si="74"/>
-        <v>5.6500000000000003E-8</v>
-      </c>
-      <c r="X63" s="4">
-        <f t="shared" si="75"/>
-        <v>9.4034117647058846E-9</v>
-      </c>
-      <c r="Y63" s="4">
-        <f t="shared" si="76"/>
-        <v>1.267E-8</v>
+      <c r="V63" s="28">
+        <f t="shared" si="69"/>
+        <v>52.305882352941175</v>
+      </c>
+      <c r="W63" s="28">
+        <f t="shared" si="70"/>
+        <v>56.5</v>
+      </c>
+      <c r="X63" s="28">
+        <f t="shared" si="71"/>
+        <v>9.4034117647058846</v>
+      </c>
+      <c r="Y63" s="28">
+        <f t="shared" si="72"/>
+        <v>12.67</v>
       </c>
     </row>
     <row r="64" spans="2:98" x14ac:dyDescent="0.25">
@@ -58384,21 +58407,21 @@
         <v>1</v>
       </c>
       <c r="U64" s="2"/>
-      <c r="V64" s="4">
-        <f t="shared" si="73"/>
-        <v>4.1975625000000001E-8</v>
-      </c>
-      <c r="W64" s="4">
-        <f t="shared" si="74"/>
-        <v>5.6029999999999999E-8</v>
-      </c>
-      <c r="X64" s="4">
-        <f t="shared" si="75"/>
-        <v>8.1953749999999987E-9</v>
-      </c>
-      <c r="Y64" s="4">
-        <f t="shared" si="76"/>
-        <v>1.214E-8</v>
+      <c r="V64" s="28">
+        <f t="shared" si="69"/>
+        <v>41.975625000000001</v>
+      </c>
+      <c r="W64" s="28">
+        <f t="shared" si="70"/>
+        <v>56.03</v>
+      </c>
+      <c r="X64" s="28">
+        <f t="shared" si="71"/>
+        <v>8.1953749999999985</v>
+      </c>
+      <c r="Y64" s="28">
+        <f t="shared" si="72"/>
+        <v>12.14</v>
       </c>
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.25">
@@ -58470,21 +58493,21 @@
         <v>1</v>
       </c>
       <c r="U65" s="2"/>
-      <c r="V65" s="4">
-        <f t="shared" si="73"/>
-        <v>4.0313749999999999E-8</v>
-      </c>
-      <c r="W65" s="4">
-        <f t="shared" si="74"/>
-        <v>5.3949999999999997E-8</v>
-      </c>
-      <c r="X65" s="4">
-        <f t="shared" si="75"/>
-        <v>9.0863749999999999E-9</v>
-      </c>
-      <c r="Y65" s="4">
-        <f t="shared" si="76"/>
-        <v>1.1819999999999999E-8</v>
+      <c r="V65" s="28">
+        <f t="shared" si="69"/>
+        <v>40.313749999999999</v>
+      </c>
+      <c r="W65" s="28">
+        <f t="shared" si="70"/>
+        <v>53.949999999999996</v>
+      </c>
+      <c r="X65" s="28">
+        <f t="shared" si="71"/>
+        <v>9.0863750000000003</v>
+      </c>
+      <c r="Y65" s="28">
+        <f t="shared" si="72"/>
+        <v>11.819999999999999</v>
       </c>
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.25">
@@ -58556,12 +58579,20 @@
         <v>0</v>
       </c>
       <c r="U66" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="V66" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
+      <c r="W66" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="X66" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y66" s="29" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
@@ -59599,7 +59630,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>25</v>
       </c>
@@ -59673,7 +59704,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.25">
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -59683,7 +59714,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="C83" s="10" t="s">
         <v>239</v>
@@ -59710,7 +59741,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B84" s="18">
         <v>1</v>
       </c>
@@ -59731,11 +59762,11 @@
         <v>F1</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f t="shared" ref="G84:H84" si="77">BIN2HEX(G57,2)</f>
+        <f t="shared" ref="G84:H84" si="73">BIN2HEX(G57,2)</f>
         <v>7A</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="73"/>
         <v>37</v>
       </c>
       <c r="I84" s="5" t="str">
@@ -59749,478 +59780,485 @@
       <c r="W84" s="1"/>
       <c r="Y84" s="1"/>
     </row>
-    <row r="85" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="18">
         <v>2</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f t="shared" ref="C85:E108" si="78">BIN2HEX(C58,2)</f>
+        <f t="shared" ref="C85:E108" si="74">BIN2HEX(C58,2)</f>
         <v>A5</v>
       </c>
       <c r="D85" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>DC</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>21</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f t="shared" ref="F85:J85" si="79">BIN2HEX(F58,2)</f>
+        <f t="shared" ref="F85:J85" si="75">BIN2HEX(F58,2)</f>
         <v>AF</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>15</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>D2</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>BD</v>
       </c>
       <c r="J85" s="13" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="75"/>
         <v>64</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>291</v>
+        <v>356</v>
+      </c>
+      <c r="Z85" s="30" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="18">
         <v>3</v>
       </c>
       <c r="C86" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>16</v>
       </c>
       <c r="D86" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>93</v>
       </c>
       <c r="E86" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>6B</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f t="shared" ref="F86:J86" si="80">BIN2HEX(F59,2)</f>
+        <f t="shared" ref="F86:J86" si="76">BIN2HEX(F59,2)</f>
         <v>AB</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>0F</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>FE</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>85</v>
       </c>
       <c r="J86" s="13" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="76"/>
         <v>31</v>
       </c>
       <c r="U86" s="25" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="V86" s="26">
-        <f>AVERAGE(V57:V81)*10^9</f>
-        <v>44.829167936269343</v>
+        <f>AVERAGE(V57:V66)</f>
+        <v>44.829167936269336</v>
       </c>
       <c r="W86" s="26">
-        <f>AVERAGE(W57:W81)*10^9</f>
-        <v>56.298888888888889</v>
+        <f>MAX(W57:W66)</f>
+        <v>58.63</v>
       </c>
       <c r="X86" s="26">
-        <f>AVERAGE(X57:X81)*10^9</f>
-        <v>9.5214713943764657</v>
-      </c>
-      <c r="Y86" s="27">
-        <f>AVERAGE(Y57:Y81)*10^9</f>
-        <v>12.601111111111111</v>
+        <f>AVERAGE(X57:X66)</f>
+        <v>9.5214713943764639</v>
+      </c>
+      <c r="Y86" s="26">
+        <f>MAX(Y57:Y66)</f>
+        <v>13.76</v>
+      </c>
+      <c r="Z86" s="27" t="e">
+        <f>AVERAGE(Z57:Z66)*1000</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B87" s="18">
         <v>4</v>
       </c>
       <c r="C87" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>90</v>
       </c>
       <c r="D87" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>81</v>
       </c>
       <c r="E87" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>ED</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f t="shared" ref="F87:J87" si="81">BIN2HEX(F60,2)</f>
+        <f t="shared" ref="F87:J87" si="77">BIN2HEX(F60,2)</f>
         <v>2A</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>85</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>DF</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>22</v>
       </c>
       <c r="J87" s="13" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="77"/>
         <v>2A</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B88" s="18">
         <v>5</v>
       </c>
       <c r="C88" s="5" t="str">
+        <f t="shared" si="74"/>
+        <v>55</v>
+      </c>
+      <c r="D88" s="5" t="str">
+        <f t="shared" si="74"/>
+        <v>CA</v>
+      </c>
+      <c r="E88" s="5" t="str">
+        <f t="shared" si="74"/>
+        <v>A0</v>
+      </c>
+      <c r="F88" s="5" t="str">
+        <f t="shared" ref="F88:J88" si="78">BIN2HEX(F61,2)</f>
+        <v>78</v>
+      </c>
+      <c r="G88" s="5" t="str">
         <f t="shared" si="78"/>
-        <v>55</v>
-      </c>
-      <c r="D88" s="5" t="str">
+        <v>35</v>
+      </c>
+      <c r="H88" s="5" t="str">
         <f t="shared" si="78"/>
-        <v>CA</v>
-      </c>
-      <c r="E88" s="5" t="str">
+        <v>C6</v>
+      </c>
+      <c r="I88" s="5" t="str">
         <f t="shared" si="78"/>
-        <v>A0</v>
-      </c>
-      <c r="F88" s="5" t="str">
-        <f t="shared" ref="F88:J88" si="82">BIN2HEX(F61,2)</f>
-        <v>78</v>
-      </c>
-      <c r="G88" s="5" t="str">
-        <f t="shared" si="82"/>
-        <v>35</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="82"/>
-        <v>C6</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="82"/>
         <v>FF</v>
       </c>
       <c r="J88" s="13" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>FE</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B89" s="18">
         <v>6</v>
       </c>
       <c r="C89" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>56</v>
       </c>
       <c r="D89" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>4A</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>32</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f t="shared" ref="F89:J89" si="83">BIN2HEX(F62,2)</f>
+        <f t="shared" ref="F89:J89" si="79">BIN2HEX(F62,2)</f>
         <v>4D</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>F4</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>68</v>
       </c>
       <c r="J89" s="13" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="79"/>
         <v>5E</v>
       </c>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B90" s="18">
         <v>7</v>
       </c>
       <c r="C90" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>5C</v>
       </c>
       <c r="D90" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>20</v>
       </c>
       <c r="E90" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>AE</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f t="shared" ref="F90:J90" si="84">BIN2HEX(F63,2)</f>
+        <f t="shared" ref="F90:J90" si="80">BIN2HEX(F63,2)</f>
         <v>E3</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>3E</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>EF</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>70</v>
       </c>
       <c r="J90" s="13" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B91" s="18">
         <v>8</v>
       </c>
       <c r="C91" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>84</v>
       </c>
       <c r="D91" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>75</v>
       </c>
       <c r="E91" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>07</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f t="shared" ref="F91:J91" si="85">BIN2HEX(F64,2)</f>
+        <f t="shared" ref="F91:J91" si="81">BIN2HEX(F64,2)</f>
         <v>8E</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>03</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>E8</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>AB</v>
       </c>
       <c r="J91" s="13" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="81"/>
         <v>E6</v>
       </c>
     </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B92" s="18">
         <v>9</v>
       </c>
       <c r="C92" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>1C</v>
       </c>
       <c r="D92" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>FE</v>
       </c>
       <c r="E92" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>0B</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f t="shared" ref="F92:J92" si="86">BIN2HEX(F65,2)</f>
+        <f t="shared" ref="F92:J92" si="82">BIN2HEX(F65,2)</f>
         <v>89</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>01</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>4E</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>6D</v>
       </c>
       <c r="J92" s="13" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="82"/>
         <v>EE</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B93" s="18">
         <v>10</v>
       </c>
       <c r="C93" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>30</v>
       </c>
       <c r="D93" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>4C</v>
       </c>
       <c r="E93" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>5B</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f t="shared" ref="F93:J93" si="87">BIN2HEX(F66,2)</f>
+        <f t="shared" ref="F93:J93" si="83">BIN2HEX(F66,2)</f>
         <v>1B</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>FF</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>FF</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>FC</v>
       </c>
       <c r="J93" s="13" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="83"/>
         <v>04</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B94" s="18">
         <v>11</v>
       </c>
       <c r="C94" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D94" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E94" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f t="shared" ref="F94:J94" si="88">BIN2HEX(F67,2)</f>
+        <f t="shared" ref="F94:J94" si="84">BIN2HEX(F67,2)</f>
         <v>00</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>FF</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>FF</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>FF</v>
       </c>
       <c r="J94" s="13" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B95" s="18">
         <v>12</v>
       </c>
       <c r="C95" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D95" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E95" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f t="shared" ref="F95:J95" si="89">BIN2HEX(F68,2)</f>
+        <f t="shared" ref="F95:J95" si="85">BIN2HEX(F68,2)</f>
         <v>00</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>FF</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>FF</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>FF</v>
       </c>
       <c r="J95" s="13" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B96" s="18">
         <v>13</v>
       </c>
       <c r="C96" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D96" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E96" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f t="shared" ref="F96:J96" si="90">BIN2HEX(F69,2)</f>
+        <f t="shared" ref="F96:J96" si="86">BIN2HEX(F69,2)</f>
         <v>00</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>FF</v>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>FF</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>FF</v>
       </c>
       <c r="J96" s="13" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>FF</v>
       </c>
     </row>
@@ -60229,35 +60267,35 @@
         <v>14</v>
       </c>
       <c r="C97" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D97" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E97" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f t="shared" ref="F97:J97" si="91">BIN2HEX(F70,2)</f>
+        <f t="shared" ref="F97:J97" si="87">BIN2HEX(F70,2)</f>
         <v>00</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>FF</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>FF</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>FF</v>
       </c>
       <c r="J97" s="13" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>FF</v>
       </c>
     </row>
@@ -60266,35 +60304,35 @@
         <v>15</v>
       </c>
       <c r="C98" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D98" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E98" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f t="shared" ref="F98:J98" si="92">BIN2HEX(F71,2)</f>
+        <f t="shared" ref="F98:J98" si="88">BIN2HEX(F71,2)</f>
         <v>00</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>FF</v>
       </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>FF</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>FF</v>
       </c>
       <c r="J98" s="13" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>FF</v>
       </c>
     </row>
@@ -60303,35 +60341,35 @@
         <v>16</v>
       </c>
       <c r="C99" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D99" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E99" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f t="shared" ref="F99:J99" si="93">BIN2HEX(F72,2)</f>
+        <f t="shared" ref="F99:J99" si="89">BIN2HEX(F72,2)</f>
         <v>00</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>FF</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>FF</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>FF</v>
       </c>
       <c r="J99" s="13" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>FF</v>
       </c>
     </row>
@@ -60340,35 +60378,35 @@
         <v>17</v>
       </c>
       <c r="C100" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D100" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E100" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f t="shared" ref="F100:J100" si="94">BIN2HEX(F73,2)</f>
+        <f t="shared" ref="F100:J100" si="90">BIN2HEX(F73,2)</f>
         <v>00</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>FF</v>
       </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>FF</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>FF</v>
       </c>
       <c r="J100" s="13" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="90"/>
         <v>FF</v>
       </c>
     </row>
@@ -60377,35 +60415,35 @@
         <v>18</v>
       </c>
       <c r="C101" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D101" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E101" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f t="shared" ref="F101:J101" si="95">BIN2HEX(F74,2)</f>
+        <f t="shared" ref="F101:J101" si="91">BIN2HEX(F74,2)</f>
         <v>00</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>FF</v>
       </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>FF</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>FF</v>
       </c>
       <c r="J101" s="13" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="91"/>
         <v>FF</v>
       </c>
     </row>
@@ -60414,35 +60452,35 @@
         <v>19</v>
       </c>
       <c r="C102" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D102" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E102" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f t="shared" ref="F102:J102" si="96">BIN2HEX(F75,2)</f>
+        <f t="shared" ref="F102:J102" si="92">BIN2HEX(F75,2)</f>
         <v>00</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>FF</v>
       </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>FF</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>FF</v>
       </c>
       <c r="J102" s="13" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="92"/>
         <v>FF</v>
       </c>
     </row>
@@ -60451,35 +60489,35 @@
         <v>20</v>
       </c>
       <c r="C103" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D103" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E103" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f t="shared" ref="F103:J103" si="97">BIN2HEX(F76,2)</f>
+        <f t="shared" ref="F103:J103" si="93">BIN2HEX(F76,2)</f>
         <v>00</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>FF</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>FF</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>FF</v>
       </c>
       <c r="J103" s="13" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="93"/>
         <v>FF</v>
       </c>
     </row>
@@ -60488,35 +60526,35 @@
         <v>21</v>
       </c>
       <c r="C104" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D104" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E104" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f t="shared" ref="F104:J104" si="98">BIN2HEX(F77,2)</f>
+        <f t="shared" ref="F104:J104" si="94">BIN2HEX(F77,2)</f>
         <v>00</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>FF</v>
       </c>
       <c r="H104" s="5" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>FF</v>
       </c>
       <c r="I104" s="5" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>FF</v>
       </c>
       <c r="J104" s="13" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>FF</v>
       </c>
     </row>
@@ -60525,35 +60563,35 @@
         <v>22</v>
       </c>
       <c r="C105" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D105" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E105" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f t="shared" ref="F105:J105" si="99">BIN2HEX(F78,2)</f>
+        <f t="shared" ref="F105:J105" si="95">BIN2HEX(F78,2)</f>
         <v>00</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>FF</v>
       </c>
       <c r="H105" s="5" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>FF</v>
       </c>
       <c r="I105" s="5" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>FF</v>
       </c>
       <c r="J105" s="13" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>FF</v>
       </c>
     </row>
@@ -60562,35 +60600,35 @@
         <v>23</v>
       </c>
       <c r="C106" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D106" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E106" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F106" s="5" t="str">
-        <f t="shared" ref="F106:J106" si="100">BIN2HEX(F79,2)</f>
+        <f t="shared" ref="F106:J106" si="96">BIN2HEX(F79,2)</f>
         <v>00</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>FF</v>
       </c>
       <c r="H106" s="5" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>FF</v>
       </c>
       <c r="I106" s="5" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>FF</v>
       </c>
       <c r="J106" s="13" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>FF</v>
       </c>
     </row>
@@ -60599,35 +60637,35 @@
         <v>24</v>
       </c>
       <c r="C107" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D107" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E107" s="5" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f t="shared" ref="F107:J107" si="101">BIN2HEX(F80,2)</f>
+        <f t="shared" ref="F107:J107" si="97">BIN2HEX(F80,2)</f>
         <v>00</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>FF</v>
       </c>
       <c r="H107" s="5" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>FF</v>
       </c>
       <c r="I107" s="5" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>FF</v>
       </c>
       <c r="J107" s="13" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>FF</v>
       </c>
     </row>
@@ -60636,35 +60674,35 @@
         <v>25</v>
       </c>
       <c r="C108" s="15" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="D108" s="15" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="E108" s="15" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="74"/>
         <v>00</v>
       </c>
       <c r="F108" s="15" t="str">
-        <f t="shared" ref="F108:J108" si="102">BIN2HEX(F81,2)</f>
+        <f t="shared" ref="F108:J108" si="98">BIN2HEX(F81,2)</f>
         <v>00</v>
       </c>
       <c r="G108" s="15" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>FF</v>
       </c>
       <c r="H108" s="15" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>FF</v>
       </c>
       <c r="I108" s="15" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>FF</v>
       </c>
       <c r="J108" s="16" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>FF</v>
       </c>
     </row>
@@ -60734,7 +60772,7 @@
         <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
